--- a/database/industries/darou/deshimi/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/deshimi/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E31C10A-41E5-498B-BEB4-4E7FD33F11EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC40CCC-567D-4CB2-B916-7081AC1CC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="70">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -687,16 +702,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I186"/>
+  <dimension ref="B1:N186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -705,8 +720,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,8 +737,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,8 +754,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -739,8 +769,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -751,8 +786,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -763,8 +803,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -773,8 +818,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -795,8 +845,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -805,10 +870,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -817,416 +887,676 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>7118</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6037</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2349</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8954</v>
+      </c>
+      <c r="I11" s="11">
+        <v>13782</v>
+      </c>
+      <c r="J11" s="11">
         <v>12477</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>14647</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>19327</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>16626</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>15244</v>
+      </c>
+      <c r="F12" s="13">
+        <v>16128</v>
+      </c>
+      <c r="G12" s="13">
+        <v>-11870</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4091</v>
+      </c>
+      <c r="I12" s="13">
+        <v>23762</v>
+      </c>
+      <c r="J12" s="13">
         <v>34196</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>33508</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>21213</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>20089</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>13307</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15074</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1972</v>
+      </c>
+      <c r="H13" s="11">
+        <v>17421</v>
+      </c>
+      <c r="I13" s="11">
+        <v>21494</v>
+      </c>
+      <c r="J13" s="11">
         <v>19306</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>13807</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>13118</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>14790</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13">
-        <v>0</v>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>30585</v>
+      </c>
+      <c r="F15" s="11">
+        <v>8803</v>
+      </c>
+      <c r="G15" s="11">
+        <v>19933</v>
+      </c>
+      <c r="H15" s="11">
+        <v>32843</v>
+      </c>
+      <c r="I15" s="11">
+        <v>17751</v>
+      </c>
+      <c r="J15" s="11">
         <v>16924</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>15910</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>12520</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>54723</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>53132</v>
+      </c>
+      <c r="F16" s="13">
+        <v>38377</v>
+      </c>
+      <c r="G16" s="13">
+        <v>54579</v>
+      </c>
+      <c r="H16" s="13">
+        <v>50181</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2449</v>
+      </c>
+      <c r="G17" s="11">
+        <v>51</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2269</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1926</v>
+      </c>
+      <c r="J17" s="11">
         <v>181</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>14386</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>5195</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>15170</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13">
+      <c r="E18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1273</v>
+      </c>
+      <c r="G18" s="13">
+        <v>507</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
         <v>2463</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>1574</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>923</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>1694</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2293</v>
+      </c>
+      <c r="G19" s="11">
+        <v>8</v>
+      </c>
+      <c r="H19" s="11">
+        <v>25</v>
+      </c>
+      <c r="I19" s="11">
+        <v>5538</v>
+      </c>
+      <c r="J19" s="11">
         <v>4006</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>716</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>333</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="E20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13">
+        <v>33546</v>
+      </c>
+      <c r="J20" s="13">
         <v>20194</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>19169</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>27289</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>19211</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>0</v>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>2</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>8</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13">
+      <c r="E22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13">
+        <v>5468</v>
+      </c>
+      <c r="J22" s="13">
         <v>3640</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13">
         <v>116</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>9223</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
+      <c r="E23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1361</v>
+      </c>
+      <c r="J23" s="11">
         <v>7088</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11">
         <v>4371</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>2050</v>
       </c>
-      <c r="I23" s="11">
+      <c r="N23" s="11">
         <v>5876</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="13">
+      <c r="E24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
         <v>960</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="K24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="13">
         <v>960</v>
       </c>
-      <c r="H24" s="13">
+      <c r="M24" s="13">
         <v>6400</v>
       </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11">
-        <v>0</v>
+      <c r="E25" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="13">
-        <v>0</v>
+      <c r="E26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>119386</v>
+      </c>
+      <c r="F27" s="15">
+        <v>90434</v>
+      </c>
+      <c r="G27" s="15">
+        <v>67529</v>
+      </c>
+      <c r="H27" s="15">
+        <v>115784</v>
+      </c>
+      <c r="I27" s="15">
+        <v>124629</v>
+      </c>
+      <c r="J27" s="15">
         <v>121435</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <v>119166</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>117599</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>148645</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1235,154 +1565,249 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="11">
         <v>25</v>
       </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="13">
-        <v>0</v>
+      <c r="E34" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="13">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="13">
         <v>1700</v>
       </c>
-      <c r="I34" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1390,21 +1815,36 @@
         <v>0</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="15">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
         <v>25</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>1700</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1413,54 +1853,89 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
+      <c r="E37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -1479,42 +1954,72 @@
       <c r="I39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>13</v>
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17">
+        <v>-120</v>
+      </c>
+      <c r="G40" s="17">
+        <v>-120</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
         <v>0</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>13</v>
+      <c r="F41" s="15">
+        <v>0</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -1525,30 +2030,60 @@
       <c r="I41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
+        <v>119386</v>
+      </c>
+      <c r="F42" s="17">
+        <v>91314</v>
+      </c>
+      <c r="G42" s="17">
+        <v>68409</v>
+      </c>
+      <c r="H42" s="17">
+        <v>115784</v>
+      </c>
+      <c r="I42" s="17">
+        <v>125629</v>
+      </c>
+      <c r="J42" s="17">
         <v>121435</v>
       </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
+      <c r="K42" s="17">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17">
         <v>119191</v>
       </c>
-      <c r="H42" s="17">
+      <c r="M42" s="17">
         <v>119299</v>
       </c>
-      <c r="I42" s="17">
+      <c r="N42" s="17">
         <v>148645</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1557,8 +2092,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1567,8 +2107,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1577,10 +2122,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1599,8 +2149,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1609,10 +2174,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1621,416 +2191,676 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>28841</v>
+      </c>
+      <c r="F49" s="11">
+        <v>31327</v>
+      </c>
+      <c r="G49" s="11">
+        <v>11872</v>
+      </c>
+      <c r="H49" s="11">
+        <v>45112</v>
+      </c>
+      <c r="I49" s="11">
+        <v>75006</v>
+      </c>
+      <c r="J49" s="11">
         <v>69083</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="K49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="11">
         <v>95046</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>130304</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>116094</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>26291</v>
+      </c>
+      <c r="F50" s="13">
+        <v>57239</v>
+      </c>
+      <c r="G50" s="13">
+        <v>-29796</v>
+      </c>
+      <c r="H50" s="13">
+        <v>47239</v>
+      </c>
+      <c r="I50" s="13">
+        <v>179192</v>
+      </c>
+      <c r="J50" s="13">
         <v>258059</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="K50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="13">
         <v>228454</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>263844</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>198930</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>105417</v>
+      </c>
+      <c r="F51" s="11">
+        <v>93367</v>
+      </c>
+      <c r="G51" s="11">
+        <v>18605</v>
+      </c>
+      <c r="H51" s="11">
+        <v>189817</v>
+      </c>
+      <c r="I51" s="11">
+        <v>267384</v>
+      </c>
+      <c r="J51" s="11">
         <v>216623</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11">
         <v>177462</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>199177</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>309846</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13">
-        <v>0</v>
+      <c r="E52" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G52" s="13">
         <v>0</v>
       </c>
-      <c r="H52" s="13">
-        <v>0</v>
+      <c r="H52" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I52" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="13">
+        <v>0</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="13">
+        <v>0</v>
+      </c>
+      <c r="M52" s="13">
+        <v>0</v>
+      </c>
+      <c r="N52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>335012</v>
+      </c>
+      <c r="F53" s="11">
+        <v>96974</v>
+      </c>
+      <c r="G53" s="11">
+        <v>195636</v>
+      </c>
+      <c r="H53" s="11">
+        <v>411106</v>
+      </c>
+      <c r="I53" s="11">
+        <v>246251</v>
+      </c>
+      <c r="J53" s="11">
         <v>261492</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="K53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="11">
         <v>254519</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>357857</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>2449870</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>13</v>
+      <c r="E54" s="13">
+        <v>243316</v>
+      </c>
+      <c r="F54" s="13">
+        <v>127493</v>
+      </c>
+      <c r="G54" s="13">
+        <v>206166</v>
+      </c>
+      <c r="H54" s="13">
+        <v>248573</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
+      <c r="E55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="11">
+        <v>9550</v>
+      </c>
+      <c r="G55" s="11">
+        <v>4966</v>
+      </c>
+      <c r="H55" s="11">
+        <v>13897</v>
+      </c>
+      <c r="I55" s="11">
+        <v>19088</v>
+      </c>
+      <c r="J55" s="11">
         <v>3116</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11">
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11">
         <v>100014</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>83871</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>214254</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13">
+      <c r="E56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="13">
+        <v>10120</v>
+      </c>
+      <c r="G56" s="13">
+        <v>18575</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
         <v>98253</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="K56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="13">
         <v>73984</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>38273</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>98632</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
+      <c r="E57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="11">
+        <v>64252</v>
+      </c>
+      <c r="G57" s="11">
+        <v>2364</v>
+      </c>
+      <c r="H57" s="11">
+        <v>1859</v>
+      </c>
+      <c r="I57" s="11">
+        <v>199829</v>
+      </c>
+      <c r="J57" s="11">
         <v>142264</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11">
         <v>36581</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>24649</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>75180</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13">
+      <c r="E58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="13">
+        <v>193796</v>
+      </c>
+      <c r="J58" s="13">
         <v>134888</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="K58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="13">
         <v>173324</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>235603</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>105878</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>0</v>
+      <c r="E59" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="11">
+        <v>18</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1560</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="11">
         <v>2015</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>11310</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>4550</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="13">
+      <c r="E60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="13">
+        <v>17499</v>
+      </c>
+      <c r="J60" s="13">
         <v>11604</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="13">
+      <c r="K60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="13">
         <v>2366</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>49463</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>26708</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
+      <c r="E61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>20407</v>
+      </c>
+      <c r="J61" s="11">
         <v>106319</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="K61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="11">
         <v>65565</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>31172</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>91215</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13">
+      <c r="E62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="13">
+        <v>0</v>
+      </c>
+      <c r="J62" s="13">
         <v>691</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13">
         <v>864</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>5760</v>
       </c>
-      <c r="I62" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
-        <v>0</v>
+      <c r="E63" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
         <v>3960</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13">
-        <v>0</v>
+      <c r="E64" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="13">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="13">
+        <v>0</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0</v>
+      </c>
+      <c r="M64" s="13">
+        <v>0</v>
+      </c>
+      <c r="N64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>738877</v>
+      </c>
+      <c r="F65" s="15">
+        <v>490322</v>
+      </c>
+      <c r="G65" s="15">
+        <v>428388</v>
+      </c>
+      <c r="H65" s="15">
+        <v>957603</v>
+      </c>
+      <c r="I65" s="15">
+        <v>1220012</v>
+      </c>
+      <c r="J65" s="15">
         <v>1302392</v>
       </c>
-      <c r="F65" s="15">
-        <v>0</v>
-      </c>
-      <c r="G65" s="15">
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="15">
         <v>1210194</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>1431283</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>3695117</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2039,154 +2869,249 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="11">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11">
         <v>219</v>
       </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
+        <v>0</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F71" s="11">
+        <v>8400</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="13">
-        <v>0</v>
+      <c r="E72" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="13">
+        <v>18</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="13">
+        <v>9436</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="13">
         <v>18382</v>
       </c>
-      <c r="I72" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N72" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2194,21 +3119,36 @@
         <v>0</v>
       </c>
       <c r="F73" s="15">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
+      <c r="I73" s="15">
+        <v>9436</v>
+      </c>
+      <c r="J73" s="15">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15">
+        <v>0</v>
+      </c>
+      <c r="L73" s="15">
         <v>219</v>
       </c>
-      <c r="H73" s="15">
+      <c r="M73" s="15">
         <v>18382</v>
       </c>
-      <c r="I73" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2217,58 +3157,93 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11">
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
+      <c r="E75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11">
+        <v>0</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="13">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="13">
+        <v>0</v>
+      </c>
+      <c r="N76" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -2287,44 +3262,74 @@
       <c r="I77" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="15">
+        <v>0</v>
+      </c>
+      <c r="K77" s="15">
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <v>0</v>
+      </c>
+      <c r="M77" s="15">
+        <v>0</v>
+      </c>
+      <c r="N77" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>13</v>
+      <c r="E78" s="17">
+        <v>0</v>
+      </c>
+      <c r="F78" s="17">
+        <v>-1056</v>
+      </c>
+      <c r="G78" s="17">
+        <v>-992</v>
+      </c>
+      <c r="H78" s="17">
+        <v>0</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
         <v>0</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>13</v>
+      <c r="F79" s="15">
+        <v>0</v>
       </c>
       <c r="G79" s="15">
         <v>0</v>
@@ -2335,30 +3340,60 @@
       <c r="I79" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
+        <v>738877</v>
+      </c>
+      <c r="F80" s="17">
+        <v>497666</v>
+      </c>
+      <c r="G80" s="17">
+        <v>427396</v>
+      </c>
+      <c r="H80" s="17">
+        <v>957603</v>
+      </c>
+      <c r="I80" s="17">
+        <v>1229448</v>
+      </c>
+      <c r="J80" s="17">
         <v>1302392</v>
       </c>
-      <c r="F80" s="17">
-        <v>0</v>
-      </c>
-      <c r="G80" s="17">
+      <c r="K80" s="17">
+        <v>0</v>
+      </c>
+      <c r="L80" s="17">
         <v>1210413</v>
       </c>
-      <c r="H80" s="17">
+      <c r="M80" s="17">
         <v>1449665</v>
       </c>
-      <c r="I80" s="17">
+      <c r="N80" s="17">
         <v>3695117</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2367,8 +3402,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2377,8 +3417,13 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2387,10 +3432,15 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2409,8 +3459,23 @@
       <c r="I84" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2419,10 +3484,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2431,394 +3501,639 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>4051840</v>
+      </c>
+      <c r="F87" s="11">
+        <v>5189167</v>
+      </c>
+      <c r="G87" s="11">
+        <v>5054066</v>
+      </c>
+      <c r="H87" s="11">
+        <v>5038195</v>
+      </c>
+      <c r="I87" s="11">
+        <v>5442316</v>
+      </c>
+      <c r="J87" s="11">
         <v>5536828</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>6384870</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>6489110</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>6742071</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>6982678</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>1724679</v>
+      </c>
+      <c r="F88" s="13">
+        <v>4160706</v>
+      </c>
+      <c r="G88" s="13">
+        <v>4083973</v>
+      </c>
+      <c r="H88" s="13">
+        <v>11547055</v>
+      </c>
+      <c r="I88" s="13">
+        <v>6974575</v>
+      </c>
+      <c r="J88" s="13">
         <v>7546467</v>
       </c>
-      <c r="F88" s="13">
+      <c r="K88" s="13">
         <v>6965624</v>
       </c>
-      <c r="G88" s="13">
+      <c r="L88" s="13">
         <v>6817894</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>12437845</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>9902434</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>7921921</v>
+      </c>
+      <c r="F89" s="11">
+        <v>6193910</v>
+      </c>
+      <c r="G89" s="11">
+        <v>8899087</v>
+      </c>
+      <c r="H89" s="11">
+        <v>10895873</v>
+      </c>
+      <c r="I89" s="11">
+        <v>12439937</v>
+      </c>
+      <c r="J89" s="11">
         <v>11220501</v>
       </c>
-      <c r="F89" s="11">
+      <c r="K89" s="11">
         <v>13222505</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>12853046</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>15183488</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>20949696</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
+        <v>10953474</v>
+      </c>
+      <c r="F91" s="11">
+        <v>11016017</v>
+      </c>
+      <c r="G91" s="11">
+        <v>9814629</v>
+      </c>
+      <c r="H91" s="11">
+        <v>12517310</v>
+      </c>
+      <c r="I91" s="11">
+        <v>13872514</v>
+      </c>
+      <c r="J91" s="11">
         <v>15450898</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>15689886</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>15997423</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>28582827</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>44768562</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D92" s="13"/>
-      <c r="E92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>13</v>
+      <c r="E92" s="13">
+        <v>4579462</v>
+      </c>
+      <c r="F92" s="13">
+        <v>3322120</v>
+      </c>
+      <c r="G92" s="13">
+        <v>3777387</v>
+      </c>
+      <c r="H92" s="13">
+        <v>4953528</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11">
+      <c r="E93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="11">
+        <v>3488551</v>
+      </c>
+      <c r="G93" s="11">
+        <v>97372549</v>
+      </c>
+      <c r="H93" s="11">
+        <v>6124725</v>
+      </c>
+      <c r="I93" s="11">
+        <v>9910696</v>
+      </c>
+      <c r="J93" s="11">
         <v>17263158</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>5508522</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>6952176</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>16144562</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>14123533</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13">
+      <c r="E94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="13">
+        <v>7332572</v>
+      </c>
+      <c r="G94" s="13">
+        <v>36637081</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="13">
         <v>39891596</v>
       </c>
-      <c r="F94" s="13">
+      <c r="K94" s="13">
         <v>27997888</v>
       </c>
-      <c r="G94" s="13">
+      <c r="L94" s="13">
         <v>47003812</v>
       </c>
-      <c r="H94" s="13">
+      <c r="M94" s="13">
         <v>41465872</v>
       </c>
-      <c r="I94" s="13">
+      <c r="N94" s="13">
         <v>58224321</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
+      <c r="E95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="11">
+        <v>23399479</v>
+      </c>
+      <c r="G95" s="11">
+        <v>295500000</v>
+      </c>
+      <c r="H95" s="11">
+        <v>74360000</v>
+      </c>
+      <c r="I95" s="11">
+        <v>36083424</v>
+      </c>
+      <c r="J95" s="11">
         <v>35512731</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>71500000</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>51090782</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>74021021</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>196292428</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13">
+      <c r="E96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="13">
+        <v>5112158</v>
+      </c>
+      <c r="J96" s="13">
         <v>6679608</v>
       </c>
-      <c r="F96" s="13">
+      <c r="K96" s="13">
         <v>6034265</v>
       </c>
-      <c r="G96" s="13">
+      <c r="L96" s="13">
         <v>9041891</v>
       </c>
-      <c r="H96" s="13">
+      <c r="M96" s="13">
         <v>8633625</v>
       </c>
-      <c r="I96" s="13">
+      <c r="N96" s="13">
         <v>5511322</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="11">
+        <v>18</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1560000000</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11">
         <v>1207142857</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>1007500000</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>1413750000</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>1300000000</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13">
+      <c r="E98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="13">
+        <v>3160105</v>
+      </c>
+      <c r="J98" s="13">
         <v>3187912</v>
       </c>
-      <c r="F98" s="13">
+      <c r="K98" s="13">
         <v>4112936</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>20396552</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>5363006</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>346857143</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11">
+      <c r="E99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="11">
+        <v>14999127</v>
+      </c>
+      <c r="J99" s="11">
         <v>14999859</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>13832109</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>15000000</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>15205854</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>15523315</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13">
+      <c r="E100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="13">
         <v>719792</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>750000</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>900000</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>900000</v>
       </c>
-      <c r="I100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N100" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="11">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="11">
         <v>1980000000</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -2827,154 +4142,249 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="11">
+        <v>18</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="11">
         <v>8760000</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F108" s="11">
+        <v>8400000</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="13">
+        <v>18</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="13">
         <v>9436000</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="13">
+      <c r="J109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="13">
+        <v>9436000</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="13">
         <v>10812941</v>
       </c>
-      <c r="I109" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N109" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -2983,56 +4393,91 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3041,8 +4486,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3051,8 +4501,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3061,10 +4516,15 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3083,8 +4543,23 @@
       <c r="I116" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3093,10 +4568,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -3105,416 +4585,676 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>-8684</v>
+      </c>
+      <c r="F119" s="11">
+        <v>-16490</v>
+      </c>
+      <c r="G119" s="11">
+        <v>-1804</v>
+      </c>
+      <c r="H119" s="11">
+        <v>-17576</v>
+      </c>
+      <c r="I119" s="11">
+        <v>-31575</v>
+      </c>
+      <c r="J119" s="11">
         <v>-41500</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>-18786</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>-49290</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>-80607</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>-81259</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
+        <v>-18963</v>
+      </c>
+      <c r="F120" s="13">
+        <v>-55071</v>
+      </c>
+      <c r="G120" s="13">
+        <v>-14867</v>
+      </c>
+      <c r="H120" s="13">
+        <v>-48253</v>
+      </c>
+      <c r="I120" s="13">
+        <v>-114359</v>
+      </c>
+      <c r="J120" s="13">
         <v>-131163</v>
       </c>
-      <c r="F120" s="13">
+      <c r="K120" s="13">
         <v>-52659</v>
       </c>
-      <c r="G120" s="13">
+      <c r="L120" s="13">
         <v>-130752</v>
       </c>
-      <c r="H120" s="13">
+      <c r="M120" s="13">
         <v>-117257</v>
       </c>
-      <c r="I120" s="13">
+      <c r="N120" s="13">
         <v>-132171</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>-64441</v>
+      </c>
+      <c r="F121" s="11">
+        <v>-74637</v>
+      </c>
+      <c r="G121" s="11">
+        <v>-3662</v>
+      </c>
+      <c r="H121" s="11">
+        <v>-104513</v>
+      </c>
+      <c r="I121" s="11">
+        <v>-105483</v>
+      </c>
+      <c r="J121" s="11">
         <v>-126369</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>-37400</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>-84639</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>-81141</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>-122855</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" s="13">
-        <v>0</v>
+      <c r="E122" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G122" s="13">
         <v>0</v>
       </c>
-      <c r="H122" s="13">
-        <v>0</v>
+      <c r="H122" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I122" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="13">
+        <v>0</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122" s="13">
+        <v>0</v>
+      </c>
+      <c r="M122" s="13">
+        <v>0</v>
+      </c>
+      <c r="N122" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>-157881</v>
+      </c>
+      <c r="F123" s="11">
+        <v>-92612</v>
+      </c>
+      <c r="G123" s="11">
+        <v>-75487</v>
+      </c>
+      <c r="H123" s="11">
+        <v>-227707</v>
+      </c>
+      <c r="I123" s="11">
+        <v>-129377</v>
+      </c>
+      <c r="J123" s="11">
         <v>-155894</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>-136292</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>-145484</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>-120069</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>-1657030</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>13</v>
+      <c r="E124" s="13">
+        <v>-78205</v>
+      </c>
+      <c r="F124" s="13">
+        <v>-22024</v>
+      </c>
+      <c r="G124" s="13">
+        <v>-50630</v>
+      </c>
+      <c r="H124" s="13">
+        <v>-61283</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="11">
+      <c r="E125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="11">
+        <v>-44907</v>
+      </c>
+      <c r="G125" s="11">
+        <v>-5531</v>
+      </c>
+      <c r="H125" s="11">
+        <v>-6639</v>
+      </c>
+      <c r="I125" s="11">
+        <v>-7510</v>
+      </c>
+      <c r="J125" s="11">
         <v>-245</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>-18759</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>-47121</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>-21813</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>-101590</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" s="13">
+      <c r="E126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="13">
+        <v>-21046</v>
+      </c>
+      <c r="G126" s="13">
+        <v>-17204</v>
+      </c>
+      <c r="H126" s="13">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13">
+        <v>0</v>
+      </c>
+      <c r="J126" s="13">
         <v>-46785</v>
       </c>
-      <c r="F126" s="13">
+      <c r="K126" s="13">
         <v>-15994</v>
       </c>
-      <c r="G126" s="13">
+      <c r="L126" s="13">
         <v>-35604</v>
       </c>
-      <c r="H126" s="13">
+      <c r="M126" s="13">
         <v>-25855</v>
       </c>
-      <c r="I126" s="13">
+      <c r="N126" s="13">
         <v>-34263</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="11"/>
-      <c r="E127" s="11">
+      <c r="E127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="11">
+        <v>-41832</v>
+      </c>
+      <c r="G127" s="11">
+        <v>-1121</v>
+      </c>
+      <c r="H127" s="11">
+        <v>-416</v>
+      </c>
+      <c r="I127" s="11">
+        <v>-111237</v>
+      </c>
+      <c r="J127" s="11">
         <v>-90935</v>
       </c>
-      <c r="F127" s="11">
+      <c r="K127" s="11">
         <v>8550</v>
       </c>
-      <c r="G127" s="11">
+      <c r="L127" s="11">
         <v>-20993</v>
       </c>
-      <c r="H127" s="11">
+      <c r="M127" s="11">
         <v>-13652</v>
       </c>
-      <c r="I127" s="11">
+      <c r="N127" s="11">
         <v>-15692</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D128" s="13"/>
-      <c r="E128" s="13">
+      <c r="E128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="13">
+        <v>-84792</v>
+      </c>
+      <c r="J128" s="13">
         <v>-92556</v>
       </c>
-      <c r="F128" s="13">
+      <c r="K128" s="13">
         <v>-49697</v>
       </c>
-      <c r="G128" s="13">
+      <c r="L128" s="13">
         <v>-56640</v>
       </c>
-      <c r="H128" s="13">
+      <c r="M128" s="13">
         <v>-108329</v>
       </c>
-      <c r="I128" s="13">
+      <c r="N128" s="13">
         <v>-149105</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="11">
-        <v>0</v>
-      </c>
-      <c r="F129" s="11">
+      <c r="E129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="11">
+        <v>-205</v>
+      </c>
+      <c r="J129" s="11">
+        <v>0</v>
+      </c>
+      <c r="K129" s="11">
         <v>-3656</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>-988</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>-4701</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>-2325</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D130" s="13"/>
-      <c r="E130" s="13">
+      <c r="E130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="13">
+        <v>-14751</v>
+      </c>
+      <c r="J130" s="13">
         <v>-2755</v>
       </c>
-      <c r="F130" s="13">
+      <c r="K130" s="13">
         <v>-12284</v>
       </c>
-      <c r="G130" s="13">
+      <c r="L130" s="13">
         <v>-1434</v>
       </c>
-      <c r="H130" s="13">
+      <c r="M130" s="13">
         <v>-22306</v>
       </c>
-      <c r="I130" s="13">
+      <c r="N130" s="13">
         <v>-4514</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="11">
+      <c r="E131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="11">
+        <v>-18693</v>
+      </c>
+      <c r="J131" s="11">
         <v>-44909</v>
       </c>
-      <c r="F131" s="11">
+      <c r="K131" s="11">
         <v>-31302</v>
       </c>
-      <c r="G131" s="11">
+      <c r="L131" s="11">
         <v>-29125</v>
       </c>
-      <c r="H131" s="11">
+      <c r="M131" s="11">
         <v>-32099</v>
       </c>
-      <c r="I131" s="11">
+      <c r="N131" s="11">
         <v>-53978</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D132" s="13"/>
-      <c r="E132" s="13">
+      <c r="E132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="13">
+        <v>0</v>
+      </c>
+      <c r="J132" s="13">
         <v>-446</v>
       </c>
-      <c r="F132" s="13">
+      <c r="K132" s="13">
         <v>-2718</v>
       </c>
-      <c r="G132" s="13">
+      <c r="L132" s="13">
         <v>-495</v>
       </c>
-      <c r="H132" s="13">
+      <c r="M132" s="13">
         <v>-3399</v>
       </c>
-      <c r="I132" s="13">
+      <c r="N132" s="13">
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="11">
-        <v>0</v>
-      </c>
-      <c r="F133" s="11">
-        <v>0</v>
-      </c>
-      <c r="G133" s="11">
-        <v>0</v>
-      </c>
-      <c r="H133" s="11">
-        <v>0</v>
+      <c r="E133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I133" s="11">
+        <v>0</v>
+      </c>
+      <c r="J133" s="11">
+        <v>0</v>
+      </c>
+      <c r="K133" s="11">
+        <v>0</v>
+      </c>
+      <c r="L133" s="11">
+        <v>0</v>
+      </c>
+      <c r="M133" s="11">
+        <v>0</v>
+      </c>
+      <c r="N133" s="11">
         <v>-954</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D134" s="13"/>
-      <c r="E134" s="13">
-        <v>0</v>
+      <c r="E134" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="13">
-        <v>0</v>
-      </c>
-      <c r="H134" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="13">
+        <v>0</v>
+      </c>
+      <c r="K134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="13">
+        <v>0</v>
+      </c>
+      <c r="M134" s="13">
+        <v>0</v>
+      </c>
+      <c r="N134" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>-328174</v>
+      </c>
+      <c r="F135" s="15">
+        <v>-368619</v>
+      </c>
+      <c r="G135" s="15">
+        <v>-170306</v>
+      </c>
+      <c r="H135" s="15">
+        <v>-466387</v>
+      </c>
+      <c r="I135" s="15">
+        <v>-617982</v>
+      </c>
+      <c r="J135" s="15">
         <v>-733557</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>-370997</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>-602565</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>-631228</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>-2355622</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -3523,176 +5263,286 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="11">
+        <v>18</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L137" s="11">
         <v>-100</v>
       </c>
-      <c r="H137" s="11">
+      <c r="M137" s="11">
         <v>100</v>
       </c>
-      <c r="I137" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N137" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N138" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D140" s="13"/>
-      <c r="E140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E140" s="13">
+        <v>0</v>
+      </c>
+      <c r="F140" s="13">
+        <v>0</v>
+      </c>
+      <c r="G140" s="13">
+        <v>0</v>
+      </c>
+      <c r="H140" s="13">
+        <v>0</v>
+      </c>
+      <c r="I140" s="13">
+        <v>0</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N140" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F141" s="11">
+        <v>-1976</v>
+      </c>
+      <c r="G141" s="11">
+        <v>801</v>
+      </c>
+      <c r="H141" s="11">
+        <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D142" s="13"/>
-      <c r="E142" s="13">
+      <c r="E142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="13">
+        <v>-5442</v>
+      </c>
+      <c r="J142" s="13">
         <v>5442</v>
       </c>
-      <c r="F142" s="13">
-        <v>0</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" s="13">
-        <v>0</v>
-      </c>
-      <c r="I142" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K142" s="13">
+        <v>0</v>
+      </c>
+      <c r="L142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" s="13">
+        <v>0</v>
+      </c>
+      <c r="N142" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15">
+        <v>0</v>
+      </c>
+      <c r="F143" s="15">
+        <v>-1976</v>
+      </c>
+      <c r="G143" s="15">
+        <v>801</v>
+      </c>
+      <c r="H143" s="15">
+        <v>0</v>
+      </c>
+      <c r="I143" s="15">
+        <v>-5442</v>
+      </c>
+      <c r="J143" s="15">
         <v>5442</v>
       </c>
-      <c r="F143" s="15">
-        <v>0</v>
-      </c>
-      <c r="G143" s="15">
+      <c r="K143" s="15">
+        <v>0</v>
+      </c>
+      <c r="L143" s="15">
         <v>-100</v>
       </c>
-      <c r="H143" s="15">
+      <c r="M143" s="15">
         <v>100</v>
       </c>
-      <c r="I143" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N143" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -3701,58 +5551,93 @@
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="11"/>
-      <c r="E145" s="11">
-        <v>0</v>
-      </c>
-      <c r="F145" s="11">
-        <v>0</v>
-      </c>
-      <c r="G145" s="11">
-        <v>0</v>
+      <c r="E145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J145" s="11">
+        <v>0</v>
+      </c>
+      <c r="K145" s="11">
+        <v>0</v>
+      </c>
+      <c r="L145" s="11">
+        <v>0</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="13">
-        <v>0</v>
-      </c>
-      <c r="I146" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="13">
+        <v>0</v>
+      </c>
+      <c r="N146" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
@@ -3771,37 +5656,67 @@
       <c r="I147" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="15">
+        <v>0</v>
+      </c>
+      <c r="K147" s="15">
+        <v>0</v>
+      </c>
+      <c r="L147" s="15">
+        <v>0</v>
+      </c>
+      <c r="M147" s="15">
+        <v>0</v>
+      </c>
+      <c r="N147" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="17"/>
-      <c r="E148" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>13</v>
+      <c r="E148" s="17">
+        <v>0</v>
+      </c>
+      <c r="F148" s="17">
+        <v>654</v>
+      </c>
+      <c r="G148" s="17">
+        <v>546</v>
+      </c>
+      <c r="H148" s="17">
+        <v>0</v>
       </c>
       <c r="I148" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J148" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L148" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M148" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N148" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
@@ -3819,30 +5734,60 @@
       <c r="I149" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="15">
+        <v>0</v>
+      </c>
+      <c r="K149" s="15">
+        <v>0</v>
+      </c>
+      <c r="L149" s="15">
+        <v>0</v>
+      </c>
+      <c r="M149" s="15">
+        <v>0</v>
+      </c>
+      <c r="N149" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17">
+        <v>-328174</v>
+      </c>
+      <c r="F150" s="17">
+        <v>-369941</v>
+      </c>
+      <c r="G150" s="17">
+        <v>-168959</v>
+      </c>
+      <c r="H150" s="17">
+        <v>-466387</v>
+      </c>
+      <c r="I150" s="17">
+        <v>-623424</v>
+      </c>
+      <c r="J150" s="17">
         <v>-728115</v>
       </c>
-      <c r="F150" s="17">
+      <c r="K150" s="17">
         <v>-370997</v>
       </c>
-      <c r="G150" s="17">
+      <c r="L150" s="17">
         <v>-602665</v>
       </c>
-      <c r="H150" s="17">
+      <c r="M150" s="17">
         <v>-631128</v>
       </c>
-      <c r="I150" s="17">
+      <c r="N150" s="17">
         <v>-2355622</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3851,8 +5796,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3861,8 +5811,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3871,10 +5826,15 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3893,8 +5853,23 @@
       <c r="I154" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3903,10 +5878,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3915,416 +5895,676 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
+        <v>20157</v>
+      </c>
+      <c r="F157" s="11">
+        <v>14837</v>
+      </c>
+      <c r="G157" s="11">
+        <v>10068</v>
+      </c>
+      <c r="H157" s="11">
+        <v>27536</v>
+      </c>
+      <c r="I157" s="11">
+        <v>43431</v>
+      </c>
+      <c r="J157" s="11">
         <v>27583</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>19785</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>45756</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>49697</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>34835</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="13">
+        <v>20893</v>
+      </c>
+      <c r="F158" s="13">
+        <v>43001</v>
+      </c>
+      <c r="G158" s="13">
+        <v>23943</v>
+      </c>
+      <c r="H158" s="13">
+        <v>-1014</v>
+      </c>
+      <c r="I158" s="13">
+        <v>106191</v>
+      </c>
+      <c r="J158" s="13">
         <v>126896</v>
       </c>
-      <c r="F158" s="13">
+      <c r="K158" s="13">
         <v>88980</v>
       </c>
-      <c r="G158" s="13">
+      <c r="L158" s="13">
         <v>97702</v>
       </c>
-      <c r="H158" s="13">
+      <c r="M158" s="13">
         <v>146587</v>
       </c>
-      <c r="I158" s="13">
+      <c r="N158" s="13">
         <v>66759</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
+        <v>40976</v>
+      </c>
+      <c r="F159" s="11">
+        <v>18730</v>
+      </c>
+      <c r="G159" s="11">
+        <v>13887</v>
+      </c>
+      <c r="H159" s="11">
+        <v>85304</v>
+      </c>
+      <c r="I159" s="11">
+        <v>161901</v>
+      </c>
+      <c r="J159" s="11">
         <v>90254</v>
       </c>
-      <c r="F159" s="11">
+      <c r="K159" s="11">
         <v>71646</v>
       </c>
-      <c r="G159" s="11">
+      <c r="L159" s="11">
         <v>92823</v>
       </c>
-      <c r="H159" s="11">
+      <c r="M159" s="11">
         <v>118036</v>
       </c>
-      <c r="I159" s="11">
+      <c r="N159" s="11">
         <v>186991</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="13"/>
-      <c r="E160" s="13">
-        <v>0</v>
+      <c r="E160" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G160" s="13">
         <v>0</v>
       </c>
-      <c r="H160" s="13">
-        <v>0</v>
+      <c r="H160" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I160" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="13">
+        <v>0</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L160" s="13">
+        <v>0</v>
+      </c>
+      <c r="M160" s="13">
+        <v>0</v>
+      </c>
+      <c r="N160" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
+        <v>177131</v>
+      </c>
+      <c r="F161" s="11">
+        <v>4362</v>
+      </c>
+      <c r="G161" s="11">
+        <v>120148</v>
+      </c>
+      <c r="H161" s="11">
+        <v>183399</v>
+      </c>
+      <c r="I161" s="11">
+        <v>116874</v>
+      </c>
+      <c r="J161" s="11">
         <v>105597</v>
       </c>
-      <c r="F161" s="11">
+      <c r="K161" s="11">
         <v>150221</v>
       </c>
-      <c r="G161" s="11">
+      <c r="L161" s="11">
         <v>109035</v>
       </c>
-      <c r="H161" s="11">
+      <c r="M161" s="11">
         <v>237788</v>
       </c>
-      <c r="I161" s="11">
+      <c r="N161" s="11">
         <v>792840</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D162" s="13"/>
-      <c r="E162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>13</v>
+      <c r="E162" s="13">
+        <v>101629</v>
+      </c>
+      <c r="F162" s="13">
+        <v>105469</v>
+      </c>
+      <c r="G162" s="13">
+        <v>155536</v>
+      </c>
+      <c r="H162" s="13">
+        <v>187290</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N162" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D163" s="11"/>
-      <c r="E163" s="11">
+      <c r="E163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="11">
+        <v>24414</v>
+      </c>
+      <c r="G163" s="11">
+        <v>-565</v>
+      </c>
+      <c r="H163" s="11">
+        <v>7258</v>
+      </c>
+      <c r="I163" s="11">
+        <v>11578</v>
+      </c>
+      <c r="J163" s="11">
         <v>2871</v>
       </c>
-      <c r="F163" s="11">
+      <c r="K163" s="11">
         <v>14047</v>
       </c>
-      <c r="G163" s="11">
+      <c r="L163" s="11">
         <v>52893</v>
       </c>
-      <c r="H163" s="11">
+      <c r="M163" s="11">
         <v>62058</v>
       </c>
-      <c r="I163" s="11">
+      <c r="N163" s="11">
         <v>112664</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D164" s="13"/>
-      <c r="E164" s="13">
+      <c r="E164" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="13">
+        <v>7837</v>
+      </c>
+      <c r="G164" s="13">
+        <v>1371</v>
+      </c>
+      <c r="H164" s="13">
+        <v>0</v>
+      </c>
+      <c r="I164" s="13">
+        <v>0</v>
+      </c>
+      <c r="J164" s="13">
         <v>51468</v>
       </c>
-      <c r="F164" s="13">
+      <c r="K164" s="13">
         <v>10520</v>
       </c>
-      <c r="G164" s="13">
+      <c r="L164" s="13">
         <v>38380</v>
       </c>
-      <c r="H164" s="13">
+      <c r="M164" s="13">
         <v>12418</v>
       </c>
-      <c r="I164" s="13">
+      <c r="N164" s="13">
         <v>64369</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="11">
+      <c r="E165" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="11">
+        <v>56984</v>
+      </c>
+      <c r="G165" s="11">
+        <v>1243</v>
+      </c>
+      <c r="H165" s="11">
+        <v>1443</v>
+      </c>
+      <c r="I165" s="11">
+        <v>88593</v>
+      </c>
+      <c r="J165" s="11">
         <v>51329</v>
       </c>
-      <c r="F165" s="11">
+      <c r="K165" s="11">
         <v>8264</v>
       </c>
-      <c r="G165" s="11">
+      <c r="L165" s="11">
         <v>15588</v>
       </c>
-      <c r="H165" s="11">
+      <c r="M165" s="11">
         <v>10997</v>
       </c>
-      <c r="I165" s="11">
+      <c r="N165" s="11">
         <v>59488</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D166" s="13"/>
-      <c r="E166" s="13">
+      <c r="E166" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="13">
+        <v>273785</v>
+      </c>
+      <c r="J166" s="13">
         <v>42332</v>
       </c>
-      <c r="F166" s="13">
+      <c r="K166" s="13">
         <v>33600</v>
       </c>
-      <c r="G166" s="13">
+      <c r="L166" s="13">
         <v>116684</v>
       </c>
-      <c r="H166" s="13">
+      <c r="M166" s="13">
         <v>127274</v>
       </c>
-      <c r="I166" s="13">
+      <c r="N166" s="13">
         <v>-43227</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D167" s="11"/>
-      <c r="E167" s="11">
-        <v>0</v>
-      </c>
-      <c r="F167" s="11">
+      <c r="E167" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="11">
+        <v>1355</v>
+      </c>
+      <c r="J167" s="11">
+        <v>0</v>
+      </c>
+      <c r="K167" s="11">
         <v>4794</v>
       </c>
-      <c r="G167" s="11">
+      <c r="L167" s="11">
         <v>1027</v>
       </c>
-      <c r="H167" s="11">
+      <c r="M167" s="11">
         <v>6609</v>
       </c>
-      <c r="I167" s="11">
+      <c r="N167" s="11">
         <v>2225</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D168" s="13"/>
-      <c r="E168" s="13">
+      <c r="E168" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="13">
+        <v>14066</v>
+      </c>
+      <c r="J168" s="13">
         <v>8849</v>
       </c>
-      <c r="F168" s="13">
+      <c r="K168" s="13">
         <v>8001</v>
       </c>
-      <c r="G168" s="13">
+      <c r="L168" s="13">
         <v>932</v>
       </c>
-      <c r="H168" s="13">
+      <c r="M168" s="13">
         <v>27157</v>
       </c>
-      <c r="I168" s="13">
+      <c r="N168" s="13">
         <v>22194</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11">
+      <c r="E169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="11">
+        <v>32829</v>
+      </c>
+      <c r="J169" s="11">
         <v>61410</v>
       </c>
-      <c r="F169" s="11">
+      <c r="K169" s="11">
         <v>34608</v>
       </c>
-      <c r="G169" s="11">
+      <c r="L169" s="11">
         <v>36440</v>
       </c>
-      <c r="H169" s="11">
+      <c r="M169" s="11">
         <v>-927</v>
       </c>
-      <c r="I169" s="11">
+      <c r="N169" s="11">
         <v>37237</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D170" s="13"/>
-      <c r="E170" s="13">
+      <c r="E170" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="13">
+        <v>0</v>
+      </c>
+      <c r="J170" s="13">
         <v>245</v>
       </c>
-      <c r="F170" s="13">
+      <c r="K170" s="13">
         <v>1842</v>
       </c>
-      <c r="G170" s="13">
+      <c r="L170" s="13">
         <v>369</v>
       </c>
-      <c r="H170" s="13">
+      <c r="M170" s="13">
         <v>2361</v>
       </c>
-      <c r="I170" s="13">
+      <c r="N170" s="13">
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="11">
-        <v>0</v>
-      </c>
-      <c r="F171" s="11">
-        <v>0</v>
-      </c>
-      <c r="G171" s="11">
-        <v>0</v>
-      </c>
-      <c r="H171" s="11">
-        <v>0</v>
+      <c r="E171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I171" s="11">
+        <v>0</v>
+      </c>
+      <c r="J171" s="11">
+        <v>0</v>
+      </c>
+      <c r="K171" s="11">
+        <v>0</v>
+      </c>
+      <c r="L171" s="11">
+        <v>0</v>
+      </c>
+      <c r="M171" s="11">
+        <v>0</v>
+      </c>
+      <c r="N171" s="11">
         <v>3006</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D172" s="13"/>
-      <c r="E172" s="13">
-        <v>0</v>
+      <c r="E172" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" s="13">
-        <v>0</v>
-      </c>
-      <c r="H172" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I172" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="13">
+        <v>0</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L172" s="13">
+        <v>0</v>
+      </c>
+      <c r="M172" s="13">
+        <v>0</v>
+      </c>
+      <c r="N172" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15">
+        <v>360786</v>
+      </c>
+      <c r="F173" s="15">
+        <v>275634</v>
+      </c>
+      <c r="G173" s="15">
+        <v>325631</v>
+      </c>
+      <c r="H173" s="15">
+        <v>491216</v>
+      </c>
+      <c r="I173" s="15">
+        <v>850603</v>
+      </c>
+      <c r="J173" s="15">
         <v>568834</v>
       </c>
-      <c r="F173" s="15">
+      <c r="K173" s="15">
         <v>446308</v>
       </c>
-      <c r="G173" s="15">
+      <c r="L173" s="15">
         <v>607629</v>
       </c>
-      <c r="H173" s="15">
+      <c r="M173" s="15">
         <v>800055</v>
       </c>
-      <c r="I173" s="15">
+      <c r="N173" s="15">
         <v>1339495</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -4333,176 +6573,286 @@
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="11">
+        <v>18</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L175" s="11">
         <v>119</v>
       </c>
-      <c r="H175" s="11">
+      <c r="M175" s="11">
         <v>100</v>
       </c>
-      <c r="I175" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N175" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L176" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M176" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N176" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J177" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L177" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M177" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N177" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D178" s="13"/>
-      <c r="E178" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E178" s="13">
+        <v>0</v>
+      </c>
+      <c r="F178" s="13">
+        <v>0</v>
+      </c>
+      <c r="G178" s="13">
+        <v>0</v>
+      </c>
+      <c r="H178" s="13">
+        <v>0</v>
+      </c>
+      <c r="I178" s="13">
+        <v>0</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L178" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M178" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N178" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F179" s="11">
+        <v>6424</v>
+      </c>
+      <c r="G179" s="11">
+        <v>801</v>
+      </c>
+      <c r="H179" s="11">
+        <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N179" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D180" s="13"/>
-      <c r="E180" s="13">
+      <c r="E180" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="13">
+        <v>3994</v>
+      </c>
+      <c r="J180" s="13">
         <v>5442</v>
       </c>
-      <c r="F180" s="13">
+      <c r="K180" s="13">
         <v>-9436</v>
       </c>
-      <c r="G180" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" s="13">
+      <c r="L180" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M180" s="13">
         <v>18382</v>
       </c>
-      <c r="I180" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N180" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15">
+        <v>0</v>
+      </c>
+      <c r="F181" s="15">
+        <v>6424</v>
+      </c>
+      <c r="G181" s="15">
+        <v>801</v>
+      </c>
+      <c r="H181" s="15">
+        <v>0</v>
+      </c>
+      <c r="I181" s="15">
+        <v>3994</v>
+      </c>
+      <c r="J181" s="15">
         <v>5442</v>
       </c>
-      <c r="F181" s="15">
+      <c r="K181" s="15">
         <v>-9436</v>
       </c>
-      <c r="G181" s="15">
+      <c r="L181" s="15">
         <v>119</v>
       </c>
-      <c r="H181" s="15">
+      <c r="M181" s="15">
         <v>18482</v>
       </c>
-      <c r="I181" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N181" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -4511,58 +6861,93 @@
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D183" s="11"/>
-      <c r="E183" s="11">
-        <v>0</v>
-      </c>
-      <c r="F183" s="11">
-        <v>0</v>
-      </c>
-      <c r="G183" s="11">
-        <v>0</v>
+      <c r="E183" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J183" s="11">
+        <v>0</v>
+      </c>
+      <c r="K183" s="11">
+        <v>0</v>
+      </c>
+      <c r="L183" s="11">
+        <v>0</v>
+      </c>
+      <c r="M183" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N183" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D184" s="13"/>
       <c r="E184" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" s="13">
-        <v>0</v>
-      </c>
-      <c r="I184" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K184" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L184" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M184" s="13">
+        <v>0</v>
+      </c>
+      <c r="N184" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
@@ -4581,26 +6966,56 @@
       <c r="I185" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="15">
+        <v>0</v>
+      </c>
+      <c r="K185" s="15">
+        <v>0</v>
+      </c>
+      <c r="L185" s="15">
+        <v>0</v>
+      </c>
+      <c r="M185" s="15">
+        <v>0</v>
+      </c>
+      <c r="N185" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C186" s="17"/>
       <c r="D186" s="17"/>
       <c r="E186" s="17">
+        <v>360786</v>
+      </c>
+      <c r="F186" s="17">
+        <v>282058</v>
+      </c>
+      <c r="G186" s="17">
+        <v>326432</v>
+      </c>
+      <c r="H186" s="17">
+        <v>491216</v>
+      </c>
+      <c r="I186" s="17">
+        <v>854597</v>
+      </c>
+      <c r="J186" s="17">
         <v>574276</v>
       </c>
-      <c r="F186" s="17">
+      <c r="K186" s="17">
         <v>436872</v>
       </c>
-      <c r="G186" s="17">
+      <c r="L186" s="17">
         <v>607748</v>
       </c>
-      <c r="H186" s="17">
+      <c r="M186" s="17">
         <v>818537</v>
       </c>
-      <c r="I186" s="17">
+      <c r="N186" s="17">
         <v>1339495</v>
       </c>
     </row>

--- a/database/industries/darou/deshimi/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/deshimi/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F81C5C-0F8F-47A6-9B3A-32B9C4B0F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552E846-F45C-4315-9BC7-9BDFB09FF90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="70">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,31 +37,31 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1395/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1396/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1397/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1398/12</t>
+    <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/12</t>
@@ -901,35 +901,35 @@
         <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11">
-        <v>26030</v>
+      <c r="E11" s="11">
+        <v>6037</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2349</v>
+      </c>
+      <c r="G11" s="11">
+        <v>8954</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13782</v>
+      </c>
+      <c r="I11" s="11">
+        <v>12477</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="11">
-        <v>25085</v>
+        <v>14647</v>
       </c>
       <c r="L11" s="11">
-        <v>21459</v>
+        <v>19327</v>
       </c>
       <c r="M11" s="11">
-        <v>41254</v>
+        <v>16626</v>
       </c>
       <c r="N11" s="11">
-        <v>71826</v>
+        <v>21226</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -940,35 +940,35 @@
         <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="13">
-        <v>28407</v>
+      <c r="E12" s="13">
+        <v>16128</v>
+      </c>
+      <c r="F12" s="13">
+        <v>-11870</v>
+      </c>
+      <c r="G12" s="13">
+        <v>4091</v>
+      </c>
+      <c r="H12" s="13">
+        <v>23762</v>
+      </c>
+      <c r="I12" s="13">
+        <v>34196</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="13">
-        <v>52994</v>
+        <v>33508</v>
       </c>
       <c r="L12" s="13">
-        <v>53508</v>
+        <v>21213</v>
       </c>
       <c r="M12" s="13">
-        <v>90243</v>
+        <v>20089</v>
       </c>
       <c r="N12" s="13">
-        <v>96546</v>
+        <v>21736</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -979,35 +979,35 @@
         <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11">
-        <v>39630</v>
+      <c r="E13" s="11">
+        <v>15074</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1972</v>
+      </c>
+      <c r="G13" s="11">
+        <v>17421</v>
+      </c>
+      <c r="H13" s="11">
+        <v>21494</v>
+      </c>
+      <c r="I13" s="11">
+        <v>19306</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="11">
-        <v>73675</v>
+        <v>13807</v>
       </c>
       <c r="L13" s="11">
-        <v>40574</v>
+        <v>13118</v>
       </c>
       <c r="M13" s="11">
-        <v>66468</v>
+        <v>14790</v>
       </c>
       <c r="N13" s="11">
-        <v>48571</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -1021,29 +1021,29 @@
       <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>18</v>
+      <c r="F14" s="13">
+        <v>0</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>18</v>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="K14" s="13">
+        <v>0</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>18</v>
+      <c r="M14" s="13">
+        <v>0</v>
       </c>
       <c r="N14" s="13">
         <v>1381</v>
@@ -1057,35 +1057,35 @@
         <v>17</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="11">
-        <v>60069</v>
+      <c r="E15" s="11">
+        <v>8803</v>
+      </c>
+      <c r="F15" s="11">
+        <v>19933</v>
+      </c>
+      <c r="G15" s="11">
+        <v>32843</v>
+      </c>
+      <c r="H15" s="11">
+        <v>17751</v>
+      </c>
+      <c r="I15" s="11">
+        <v>16924</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="11">
-        <v>80918</v>
+        <v>15910</v>
       </c>
       <c r="L15" s="11">
-        <v>86194</v>
+        <v>12520</v>
       </c>
       <c r="M15" s="11">
-        <v>85779</v>
+        <v>54723</v>
       </c>
       <c r="N15" s="11">
-        <v>136196</v>
+        <v>53043</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -1096,14 +1096,14 @@
         <v>17</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>18</v>
+      <c r="E16" s="13">
+        <v>38377</v>
+      </c>
+      <c r="F16" s="13">
+        <v>54579</v>
+      </c>
+      <c r="G16" s="13">
+        <v>50181</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>18</v>
@@ -1111,14 +1111,14 @@
       <c r="I16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="13">
-        <v>139298</v>
-      </c>
-      <c r="K16" s="13">
-        <v>287818</v>
-      </c>
-      <c r="L16" s="13">
-        <v>219514</v>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>18</v>
@@ -1135,35 +1135,35 @@
         <v>17</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
+      <c r="E17" s="11">
+        <v>2449</v>
+      </c>
+      <c r="F17" s="11">
+        <v>51</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2269</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1926</v>
+      </c>
+      <c r="I17" s="11">
+        <v>181</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>14386</v>
       </c>
       <c r="L17" s="11">
-        <v>19922</v>
+        <v>5195</v>
       </c>
       <c r="M17" s="11">
-        <v>10331</v>
+        <v>15170</v>
       </c>
       <c r="N17" s="11">
-        <v>38166</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -1174,35 +1174,35 @@
         <v>17</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>18</v>
+      <c r="E18" s="13">
+        <v>1273</v>
+      </c>
+      <c r="F18" s="13">
+        <v>507</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2463</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="K18" s="13">
+        <v>1574</v>
       </c>
       <c r="L18" s="13">
-        <v>4446</v>
+        <v>923</v>
       </c>
       <c r="M18" s="13">
-        <v>3410</v>
+        <v>1694</v>
       </c>
       <c r="N18" s="13">
-        <v>6104</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -1213,35 +1213,35 @@
         <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>18</v>
+      <c r="E19" s="11">
+        <v>2293</v>
+      </c>
+      <c r="F19" s="11">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11">
+        <v>25</v>
+      </c>
+      <c r="H19" s="11">
+        <v>5538</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4006</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>716</v>
       </c>
       <c r="L19" s="11">
-        <v>4231</v>
+        <v>333</v>
       </c>
       <c r="M19" s="11">
-        <v>9565</v>
+        <v>383</v>
       </c>
       <c r="N19" s="11">
-        <v>2248</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -1261,26 +1261,26 @@
       <c r="G20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
+      <c r="H20" s="13">
+        <v>33546</v>
+      </c>
+      <c r="I20" s="13">
+        <v>20194</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>19169</v>
+      </c>
+      <c r="L20" s="13">
+        <v>27289</v>
       </c>
       <c r="M20" s="13">
-        <v>104140</v>
+        <v>19211</v>
       </c>
       <c r="N20" s="13">
-        <v>87713</v>
+        <v>22044</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -1300,26 +1300,26 @@
       <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>18</v>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>18</v>
+      <c r="K21" s="11">
+        <v>2</v>
+      </c>
+      <c r="L21" s="11">
+        <v>8</v>
       </c>
       <c r="M21" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N21" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -1339,26 +1339,26 @@
       <c r="G22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>18</v>
+      <c r="H22" s="13">
+        <v>5468</v>
+      </c>
+      <c r="I22" s="13">
+        <v>3640</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>18</v>
+      <c r="K22" s="13">
+        <v>116</v>
+      </c>
+      <c r="L22" s="13">
+        <v>9223</v>
       </c>
       <c r="M22" s="13">
-        <v>17691</v>
+        <v>77</v>
       </c>
       <c r="N22" s="13">
-        <v>14107</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
@@ -1378,26 +1378,26 @@
       <c r="G23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>18</v>
+      <c r="H23" s="11">
+        <v>1361</v>
+      </c>
+      <c r="I23" s="11">
+        <v>7088</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>18</v>
+      <c r="K23" s="11">
+        <v>4371</v>
+      </c>
+      <c r="L23" s="11">
+        <v>2050</v>
       </c>
       <c r="M23" s="11">
-        <v>15288</v>
+        <v>5876</v>
       </c>
       <c r="N23" s="11">
-        <v>16995</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -1417,26 +1417,26 @@
       <c r="G24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>18</v>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>960</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>18</v>
+      <c r="K24" s="13">
+        <v>960</v>
+      </c>
+      <c r="L24" s="13">
+        <v>6400</v>
       </c>
       <c r="M24" s="13">
-        <v>7040</v>
+        <v>0</v>
       </c>
       <c r="N24" s="13">
-        <v>7370</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -1456,26 +1456,26 @@
       <c r="G25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>18</v>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>18</v>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -1495,23 +1495,23 @@
       <c r="G26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>18</v>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>18</v>
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
       </c>
       <c r="N26" s="13">
         <v>0</v>
@@ -1524,34 +1524,34 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>90434</v>
       </c>
       <c r="F27" s="15">
-        <v>0</v>
+        <v>67529</v>
       </c>
       <c r="G27" s="15">
-        <v>0</v>
+        <v>115784</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>124629</v>
       </c>
       <c r="I27" s="15">
-        <v>0</v>
+        <v>121435</v>
       </c>
       <c r="J27" s="15">
-        <v>293434</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
-        <v>520490</v>
+        <v>119166</v>
       </c>
       <c r="L27" s="15">
-        <v>449848</v>
+        <v>117599</v>
       </c>
       <c r="M27" s="15">
-        <v>451217</v>
+        <v>148645</v>
       </c>
       <c r="N27" s="15">
-        <v>527239</v>
+        <v>141829</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -1597,17 +1597,17 @@
       <c r="J29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>18</v>
+      <c r="K29" s="11">
+        <v>25</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
       </c>
       <c r="N29" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -1672,11 +1672,11 @@
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="11">
-        <v>10</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>18</v>
@@ -1696,29 +1696,29 @@
         <v>17</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>18</v>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="13">
-        <v>4200</v>
-      </c>
-      <c r="K32" s="13">
-        <v>2428</v>
-      </c>
-      <c r="L32" s="13">
-        <v>0</v>
+      <c r="J32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>18</v>
@@ -1735,14 +1735,14 @@
         <v>17</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>18</v>
+      <c r="E33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>18</v>
@@ -1750,14 +1750,14 @@
       <c r="I33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="11">
-        <v>0</v>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="11">
-        <v>1000</v>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>18</v>
@@ -1822,11 +1822,11 @@
       <c r="G35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>18</v>
+      <c r="H35" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>18</v>
@@ -1834,14 +1834,14 @@
       <c r="K35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>18</v>
+      <c r="L35" s="11">
+        <v>1700</v>
       </c>
       <c r="M35" s="11">
         <v>0</v>
       </c>
       <c r="N35" s="11">
-        <v>3200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
@@ -1851,34 +1851,34 @@
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="17">
         <v>0</v>
       </c>
       <c r="H36" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="17">
         <v>0</v>
       </c>
       <c r="J36" s="17">
-        <v>4210</v>
+        <v>0</v>
       </c>
       <c r="K36" s="17">
-        <v>2428</v>
+        <v>25</v>
       </c>
       <c r="L36" s="17">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M36" s="17">
         <v>0</v>
       </c>
       <c r="N36" s="17">
-        <v>3675</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
@@ -1916,20 +1916,20 @@
       <c r="H38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>18</v>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="11">
-        <v>0</v>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>18</v>
@@ -1962,11 +1962,11 @@
       <c r="K39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>18</v>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0</v>
       </c>
       <c r="N39" s="13">
         <v>0</v>
@@ -2017,14 +2017,14 @@
         <v>42</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>18</v>
+      <c r="E41" s="17">
+        <v>-120</v>
+      </c>
+      <c r="F41" s="17">
+        <v>-120</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>18</v>
@@ -2032,14 +2032,14 @@
       <c r="I41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="17">
-        <v>0</v>
-      </c>
-      <c r="K41" s="17">
-        <v>-4313</v>
-      </c>
-      <c r="L41" s="17">
-        <v>-240</v>
+      <c r="J41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>18</v>
@@ -2054,23 +2054,23 @@
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="15">
-        <v>0</v>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="K42" s="15">
         <v>0</v>
@@ -2092,34 +2092,34 @@
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>91314</v>
       </c>
       <c r="F43" s="17">
-        <v>0</v>
+        <v>68409</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>115784</v>
       </c>
       <c r="H43" s="17">
-        <v>0</v>
+        <v>125629</v>
       </c>
       <c r="I43" s="17">
-        <v>0</v>
+        <v>121435</v>
       </c>
       <c r="J43" s="17">
-        <v>297644</v>
+        <v>0</v>
       </c>
       <c r="K43" s="17">
-        <v>518605</v>
+        <v>119191</v>
       </c>
       <c r="L43" s="17">
-        <v>450608</v>
+        <v>119299</v>
       </c>
       <c r="M43" s="17">
-        <v>451217</v>
+        <v>148645</v>
       </c>
       <c r="N43" s="17">
-        <v>530914</v>
+        <v>143779</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
@@ -2244,35 +2244,35 @@
         <v>47</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="11">
-        <v>59624</v>
+      <c r="E50" s="11">
+        <v>31327</v>
+      </c>
+      <c r="F50" s="11">
+        <v>11872</v>
+      </c>
+      <c r="G50" s="11">
+        <v>45112</v>
+      </c>
+      <c r="H50" s="11">
+        <v>75006</v>
+      </c>
+      <c r="I50" s="11">
+        <v>69083</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K50" s="11">
-        <v>74180</v>
+        <v>95046</v>
       </c>
       <c r="L50" s="11">
-        <v>92885</v>
+        <v>130304</v>
       </c>
       <c r="M50" s="11">
-        <v>227772</v>
+        <v>116094</v>
       </c>
       <c r="N50" s="11">
-        <v>485604</v>
+        <v>144160</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
@@ -2283,35 +2283,35 @@
         <v>47</v>
       </c>
       <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="13">
-        <v>54382</v>
+      <c r="E51" s="13">
+        <v>57239</v>
+      </c>
+      <c r="F51" s="13">
+        <v>-29796</v>
+      </c>
+      <c r="G51" s="13">
+        <v>47239</v>
+      </c>
+      <c r="H51" s="13">
+        <v>179192</v>
+      </c>
+      <c r="I51" s="13">
+        <v>258059</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K51" s="13">
-        <v>98998</v>
+        <v>228454</v>
       </c>
       <c r="L51" s="13">
-        <v>189961</v>
+        <v>263844</v>
       </c>
       <c r="M51" s="13">
-        <v>667487</v>
+        <v>198930</v>
       </c>
       <c r="N51" s="13">
-        <v>963553</v>
+        <v>272325</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
@@ -2322,35 +2322,35 @@
         <v>47</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="11">
-        <v>199215</v>
+      <c r="E52" s="11">
+        <v>93367</v>
+      </c>
+      <c r="F52" s="11">
+        <v>18605</v>
+      </c>
+      <c r="G52" s="11">
+        <v>189817</v>
+      </c>
+      <c r="H52" s="11">
+        <v>267384</v>
+      </c>
+      <c r="I52" s="11">
+        <v>216623</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K52" s="11">
-        <v>435211</v>
+        <v>177462</v>
       </c>
       <c r="L52" s="11">
-        <v>306951</v>
+        <v>199177</v>
       </c>
       <c r="M52" s="11">
-        <v>782870</v>
+        <v>309846</v>
       </c>
       <c r="N52" s="11">
-        <v>875785</v>
+        <v>189300</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
@@ -2364,29 +2364,29 @@
       <c r="E53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>18</v>
+      <c r="F53" s="13">
+        <v>0</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>18</v>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>18</v>
+      <c r="K53" s="13">
+        <v>0</v>
       </c>
       <c r="L53" s="13">
         <v>0</v>
       </c>
-      <c r="M53" s="13" t="s">
-        <v>18</v>
+      <c r="M53" s="13">
+        <v>0</v>
       </c>
       <c r="N53" s="13">
         <v>3452</v>
@@ -2400,35 +2400,35 @@
         <v>47</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="11">
-        <v>449157</v>
+      <c r="E54" s="11">
+        <v>96974</v>
+      </c>
+      <c r="F54" s="11">
+        <v>195636</v>
+      </c>
+      <c r="G54" s="11">
+        <v>411106</v>
+      </c>
+      <c r="H54" s="11">
+        <v>246251</v>
+      </c>
+      <c r="I54" s="11">
+        <v>261492</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K54" s="11">
-        <v>686733</v>
+        <v>254519</v>
       </c>
       <c r="L54" s="11">
-        <v>878067</v>
+        <v>357857</v>
       </c>
       <c r="M54" s="11">
-        <v>1205361</v>
+        <v>2449870</v>
       </c>
       <c r="N54" s="11">
-        <v>5342601</v>
+        <v>2280355</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
@@ -2439,14 +2439,14 @@
         <v>47</v>
       </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>18</v>
+      <c r="E55" s="13">
+        <v>127493</v>
+      </c>
+      <c r="F55" s="13">
+        <v>206166</v>
+      </c>
+      <c r="G55" s="13">
+        <v>248573</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>18</v>
@@ -2454,14 +2454,14 @@
       <c r="I55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="13">
-        <v>354874</v>
-      </c>
-      <c r="K55" s="13">
-        <v>436802</v>
-      </c>
-      <c r="L55" s="13">
-        <v>743855</v>
+      <c r="J55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>18</v>
@@ -2478,35 +2478,35 @@
         <v>47</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>18</v>
+      <c r="E56" s="11">
+        <v>9550</v>
+      </c>
+      <c r="F56" s="11">
+        <v>4966</v>
+      </c>
+      <c r="G56" s="11">
+        <v>13897</v>
+      </c>
+      <c r="H56" s="11">
+        <v>19088</v>
+      </c>
+      <c r="I56" s="11">
+        <v>3116</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>18</v>
+      <c r="K56" s="11">
+        <v>100014</v>
       </c>
       <c r="L56" s="11">
-        <v>74287</v>
+        <v>83871</v>
       </c>
       <c r="M56" s="11">
-        <v>68907</v>
+        <v>214254</v>
       </c>
       <c r="N56" s="11">
-        <v>448790</v>
+        <v>50651</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
@@ -2517,35 +2517,35 @@
         <v>47</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>18</v>
+      <c r="E57" s="13">
+        <v>10120</v>
+      </c>
+      <c r="F57" s="13">
+        <v>18575</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>98253</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>18</v>
+      <c r="K57" s="13">
+        <v>73984</v>
       </c>
       <c r="L57" s="13">
-        <v>47458</v>
+        <v>38273</v>
       </c>
       <c r="M57" s="13">
-        <v>124767</v>
+        <v>98632</v>
       </c>
       <c r="N57" s="13">
-        <v>336663</v>
+        <v>125774</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
@@ -2556,35 +2556,35 @@
         <v>47</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>18</v>
+      <c r="E58" s="11">
+        <v>64252</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2364</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1859</v>
+      </c>
+      <c r="H58" s="11">
+        <v>199829</v>
+      </c>
+      <c r="I58" s="11">
+        <v>142264</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>18</v>
+      <c r="K58" s="11">
+        <v>36581</v>
       </c>
       <c r="L58" s="11">
-        <v>101180</v>
+        <v>24649</v>
       </c>
       <c r="M58" s="11">
-        <v>343667</v>
+        <v>75180</v>
       </c>
       <c r="N58" s="11">
-        <v>206322</v>
+        <v>69912</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
@@ -2604,26 +2604,26 @@
       <c r="G59" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>18</v>
+      <c r="H59" s="13">
+        <v>193796</v>
+      </c>
+      <c r="I59" s="13">
+        <v>134888</v>
       </c>
       <c r="J59" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>18</v>
+      <c r="K59" s="13">
+        <v>173324</v>
+      </c>
+      <c r="L59" s="13">
+        <v>235603</v>
       </c>
       <c r="M59" s="13">
-        <v>576762</v>
+        <v>105878</v>
       </c>
       <c r="N59" s="13">
-        <v>693236</v>
+        <v>178431</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
@@ -2643,26 +2643,26 @@
       <c r="G60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>18</v>
+      <c r="H60" s="11">
+        <v>1560</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>18</v>
+      <c r="K60" s="11">
+        <v>2015</v>
+      </c>
+      <c r="L60" s="11">
+        <v>11310</v>
       </c>
       <c r="M60" s="11">
-        <v>10010</v>
+        <v>4550</v>
       </c>
       <c r="N60" s="11">
-        <v>17875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
@@ -2682,26 +2682,26 @@
       <c r="G61" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>18</v>
+      <c r="H61" s="13">
+        <v>17499</v>
+      </c>
+      <c r="I61" s="13">
+        <v>11604</v>
       </c>
       <c r="J61" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>18</v>
+      <c r="K61" s="13">
+        <v>2366</v>
+      </c>
+      <c r="L61" s="13">
+        <v>49463</v>
       </c>
       <c r="M61" s="13">
-        <v>60706</v>
+        <v>26708</v>
       </c>
       <c r="N61" s="13">
-        <v>135928</v>
+        <v>57391</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
@@ -2721,26 +2721,26 @@
       <c r="G62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>18</v>
+      <c r="H62" s="11">
+        <v>20407</v>
+      </c>
+      <c r="I62" s="11">
+        <v>106319</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>18</v>
+      <c r="K62" s="11">
+        <v>65565</v>
+      </c>
+      <c r="L62" s="11">
+        <v>31172</v>
       </c>
       <c r="M62" s="11">
-        <v>223751</v>
+        <v>91215</v>
       </c>
       <c r="N62" s="11">
-        <v>258422</v>
+        <v>70470</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
@@ -2760,26 +2760,26 @@
       <c r="G63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>18</v>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>691</v>
       </c>
       <c r="J63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>18</v>
+      <c r="K63" s="13">
+        <v>864</v>
+      </c>
+      <c r="L63" s="13">
+        <v>5760</v>
       </c>
       <c r="M63" s="13">
-        <v>5251</v>
+        <v>0</v>
       </c>
       <c r="N63" s="13">
-        <v>6631</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
@@ -2799,26 +2799,26 @@
       <c r="G64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>18</v>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>18</v>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0</v>
       </c>
       <c r="M64" s="11">
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="N64" s="11">
-        <v>3960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
@@ -2838,23 +2838,23 @@
       <c r="G65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>18</v>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13">
+        <v>0</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" s="13" t="s">
-        <v>18</v>
+      <c r="K65" s="13">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0</v>
+      </c>
+      <c r="M65" s="13">
+        <v>0</v>
       </c>
       <c r="N65" s="13">
         <v>0</v>
@@ -2867,34 +2867,34 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>0</v>
+        <v>490322</v>
       </c>
       <c r="F66" s="15">
-        <v>0</v>
+        <v>428388</v>
       </c>
       <c r="G66" s="15">
-        <v>0</v>
+        <v>957603</v>
       </c>
       <c r="H66" s="15">
-        <v>0</v>
+        <v>1220012</v>
       </c>
       <c r="I66" s="15">
-        <v>0</v>
+        <v>1302392</v>
       </c>
       <c r="J66" s="15">
-        <v>1117252</v>
+        <v>0</v>
       </c>
       <c r="K66" s="15">
-        <v>1731924</v>
+        <v>1210194</v>
       </c>
       <c r="L66" s="15">
-        <v>2434644</v>
+        <v>1431283</v>
       </c>
       <c r="M66" s="15">
-        <v>4297311</v>
+        <v>3695117</v>
       </c>
       <c r="N66" s="15">
-        <v>9778822</v>
+        <v>3442228</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
@@ -2940,17 +2940,17 @@
       <c r="J68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>18</v>
+      <c r="K68" s="11">
+        <v>219</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0</v>
       </c>
       <c r="N68" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
@@ -3015,11 +3015,11 @@
       <c r="I70" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J70" s="11">
-        <v>173</v>
-      </c>
-      <c r="K70" s="11">
-        <v>0</v>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L70" s="11" t="s">
         <v>18</v>
@@ -3039,29 +3039,29 @@
         <v>47</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>18</v>
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="13">
-        <v>37921</v>
-      </c>
-      <c r="K71" s="13">
-        <v>34486</v>
-      </c>
-      <c r="L71" s="13">
-        <v>0</v>
+      <c r="J71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M71" s="13" t="s">
         <v>18</v>
@@ -3078,14 +3078,14 @@
         <v>47</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>18</v>
+      <c r="E72" s="11">
+        <v>8400</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>18</v>
@@ -3093,14 +3093,14 @@
       <c r="I72" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J72" s="11">
-        <v>0</v>
+      <c r="J72" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="11">
-        <v>8400</v>
+      <c r="L72" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>18</v>
@@ -3165,11 +3165,11 @@
       <c r="G74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>18</v>
+      <c r="H74" s="11">
+        <v>9436</v>
+      </c>
+      <c r="I74" s="11">
+        <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>18</v>
@@ -3177,14 +3177,14 @@
       <c r="K74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="11" t="s">
-        <v>18</v>
+      <c r="L74" s="11">
+        <v>18382</v>
       </c>
       <c r="M74" s="11">
         <v>0</v>
       </c>
       <c r="N74" s="11">
-        <v>35075</v>
+        <v>16693</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
@@ -3194,7 +3194,7 @@
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="F75" s="17">
         <v>0</v>
@@ -3203,25 +3203,25 @@
         <v>0</v>
       </c>
       <c r="H75" s="17">
-        <v>0</v>
+        <v>9436</v>
       </c>
       <c r="I75" s="17">
         <v>0</v>
       </c>
       <c r="J75" s="17">
-        <v>38094</v>
+        <v>0</v>
       </c>
       <c r="K75" s="17">
-        <v>34486</v>
+        <v>219</v>
       </c>
       <c r="L75" s="17">
-        <v>8400</v>
+        <v>18382</v>
       </c>
       <c r="M75" s="17">
         <v>0</v>
       </c>
       <c r="N75" s="17">
-        <v>40983</v>
+        <v>22382</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
@@ -3261,20 +3261,20 @@
       <c r="H77" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>18</v>
+      <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0</v>
       </c>
       <c r="L77" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M77" s="11">
-        <v>0</v>
+      <c r="M77" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>18</v>
@@ -3309,11 +3309,11 @@
       <c r="K78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>18</v>
+      <c r="L78" s="13">
+        <v>0</v>
+      </c>
+      <c r="M78" s="13">
+        <v>0</v>
       </c>
       <c r="N78" s="13">
         <v>0</v>
@@ -3364,14 +3364,14 @@
         <v>47</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>18</v>
+      <c r="E80" s="17">
+        <v>-1056</v>
+      </c>
+      <c r="F80" s="17">
+        <v>-992</v>
+      </c>
+      <c r="G80" s="17">
+        <v>0</v>
       </c>
       <c r="H80" s="17" t="s">
         <v>18</v>
@@ -3379,14 +3379,14 @@
       <c r="I80" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J80" s="17">
-        <v>0</v>
-      </c>
-      <c r="K80" s="17">
-        <v>-29569</v>
-      </c>
-      <c r="L80" s="17">
-        <v>-2048</v>
+      <c r="J80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="M80" s="17" t="s">
         <v>18</v>
@@ -3403,23 +3403,23 @@
         <v>47</v>
       </c>
       <c r="D81" s="15"/>
-      <c r="E81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J81" s="15">
-        <v>0</v>
+      <c r="E81" s="15">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15">
+        <v>0</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="K81" s="15">
         <v>0</v>
@@ -3441,34 +3441,34 @@
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17">
-        <v>0</v>
+        <v>497666</v>
       </c>
       <c r="F82" s="17">
-        <v>0</v>
+        <v>427396</v>
       </c>
       <c r="G82" s="17">
-        <v>0</v>
+        <v>957603</v>
       </c>
       <c r="H82" s="17">
-        <v>0</v>
+        <v>1229448</v>
       </c>
       <c r="I82" s="17">
-        <v>0</v>
+        <v>1302392</v>
       </c>
       <c r="J82" s="17">
-        <v>1155346</v>
+        <v>0</v>
       </c>
       <c r="K82" s="17">
-        <v>1736841</v>
+        <v>1210413</v>
       </c>
       <c r="L82" s="17">
-        <v>2440996</v>
+        <v>1449665</v>
       </c>
       <c r="M82" s="17">
-        <v>4297311</v>
+        <v>3695117</v>
       </c>
       <c r="N82" s="17">
-        <v>9819805</v>
+        <v>3464610</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
@@ -3593,35 +3593,35 @@
         <v>52</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>18</v>
+      <c r="E89" s="11">
+        <v>5189167</v>
+      </c>
+      <c r="F89" s="11">
+        <v>5054066</v>
+      </c>
+      <c r="G89" s="11">
+        <v>5038195</v>
+      </c>
+      <c r="H89" s="11">
+        <v>5442316</v>
+      </c>
+      <c r="I89" s="11">
+        <v>5536828</v>
       </c>
       <c r="J89" s="11">
-        <v>2290588</v>
+        <v>6384870</v>
       </c>
       <c r="K89" s="11">
-        <v>2957146</v>
+        <v>6489110</v>
       </c>
       <c r="L89" s="11">
-        <v>4328487</v>
+        <v>6742071</v>
       </c>
       <c r="M89" s="11">
-        <v>5521210</v>
+        <v>6982678</v>
       </c>
       <c r="N89" s="11">
-        <v>6760839</v>
+        <v>6791671</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
@@ -3632,35 +3632,35 @@
         <v>52</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>18</v>
+      <c r="E90" s="13">
+        <v>4160706</v>
+      </c>
+      <c r="F90" s="13">
+        <v>4083973</v>
+      </c>
+      <c r="G90" s="13">
+        <v>11547055</v>
+      </c>
+      <c r="H90" s="13">
+        <v>6974575</v>
+      </c>
+      <c r="I90" s="13">
+        <v>7546467</v>
       </c>
       <c r="J90" s="13">
-        <v>1914387</v>
+        <v>6965624</v>
       </c>
       <c r="K90" s="13">
-        <v>1868098</v>
+        <v>6817894</v>
       </c>
       <c r="L90" s="13">
-        <v>3550142</v>
+        <v>12437845</v>
       </c>
       <c r="M90" s="13">
-        <v>7396552</v>
+        <v>9902434</v>
       </c>
       <c r="N90" s="13">
-        <v>9980248</v>
+        <v>12528754</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
@@ -3671,35 +3671,35 @@
         <v>52</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>18</v>
+      <c r="E91" s="11">
+        <v>6193910</v>
+      </c>
+      <c r="F91" s="11">
+        <v>8899087</v>
+      </c>
+      <c r="G91" s="11">
+        <v>10895873</v>
+      </c>
+      <c r="H91" s="11">
+        <v>12439937</v>
+      </c>
+      <c r="I91" s="11">
+        <v>11220501</v>
       </c>
       <c r="J91" s="11">
-        <v>5026874</v>
+        <v>13222505</v>
       </c>
       <c r="K91" s="11">
-        <v>5907173</v>
+        <v>12853046</v>
       </c>
       <c r="L91" s="11">
-        <v>7565214</v>
+        <v>15183488</v>
       </c>
       <c r="M91" s="11">
-        <v>11778149</v>
+        <v>20949696</v>
       </c>
       <c r="N91" s="11">
-        <v>18031027</v>
+        <v>27610852</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
@@ -3731,8 +3731,8 @@
       <c r="K92" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L92" s="13">
-        <v>0</v>
+      <c r="L92" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>18</v>
@@ -3749,35 +3749,35 @@
         <v>52</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>18</v>
+      <c r="E93" s="11">
+        <v>11016017</v>
+      </c>
+      <c r="F93" s="11">
+        <v>9814629</v>
+      </c>
+      <c r="G93" s="11">
+        <v>12517310</v>
+      </c>
+      <c r="H93" s="11">
+        <v>13872514</v>
+      </c>
+      <c r="I93" s="11">
+        <v>15450898</v>
       </c>
       <c r="J93" s="11">
-        <v>7477351</v>
+        <v>15689886</v>
       </c>
       <c r="K93" s="11">
-        <v>8486777</v>
+        <v>15997423</v>
       </c>
       <c r="L93" s="11">
-        <v>10187101</v>
+        <v>28582827</v>
       </c>
       <c r="M93" s="11">
-        <v>14051936</v>
+        <v>44768562</v>
       </c>
       <c r="N93" s="11">
-        <v>39227297</v>
+        <v>42990687</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
@@ -3788,14 +3788,14 @@
         <v>52</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>18</v>
+      <c r="E94" s="13">
+        <v>3322120</v>
+      </c>
+      <c r="F94" s="13">
+        <v>3777387</v>
+      </c>
+      <c r="G94" s="13">
+        <v>4953528</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>18</v>
@@ -3803,14 +3803,14 @@
       <c r="I94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J94" s="13">
-        <v>2547589</v>
-      </c>
-      <c r="K94" s="13">
-        <v>1517633</v>
-      </c>
-      <c r="L94" s="13">
-        <v>3388645</v>
+      <c r="J94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M94" s="13" t="s">
         <v>18</v>
@@ -3827,35 +3827,35 @@
         <v>52</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>18</v>
+      <c r="E95" s="11">
+        <v>3488551</v>
+      </c>
+      <c r="F95" s="11">
+        <v>97372549</v>
+      </c>
+      <c r="G95" s="11">
+        <v>6124725</v>
+      </c>
+      <c r="H95" s="11">
+        <v>9910696</v>
+      </c>
+      <c r="I95" s="11">
+        <v>17263158</v>
+      </c>
+      <c r="J95" s="11">
+        <v>5508522</v>
+      </c>
+      <c r="K95" s="11">
+        <v>6952176</v>
       </c>
       <c r="L95" s="11">
-        <v>3728893</v>
+        <v>16144562</v>
       </c>
       <c r="M95" s="11">
-        <v>6669925</v>
+        <v>14123533</v>
       </c>
       <c r="N95" s="11">
-        <v>11758895</v>
+        <v>14831918</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
@@ -3866,11 +3866,11 @@
         <v>52</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>18</v>
+      <c r="E96" s="13">
+        <v>7332572</v>
+      </c>
+      <c r="F96" s="13">
+        <v>36637081</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>18</v>
@@ -3878,23 +3878,23 @@
       <c r="H96" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I96" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J96" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" s="13" t="s">
-        <v>18</v>
+      <c r="I96" s="13">
+        <v>39891596</v>
+      </c>
+      <c r="J96" s="13">
+        <v>27997888</v>
+      </c>
+      <c r="K96" s="13">
+        <v>47003812</v>
       </c>
       <c r="L96" s="13">
-        <v>10674314</v>
+        <v>41465872</v>
       </c>
       <c r="M96" s="13">
-        <v>36588563</v>
+        <v>58224321</v>
       </c>
       <c r="N96" s="13">
-        <v>55154489</v>
+        <v>65746994</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
@@ -3905,35 +3905,35 @@
         <v>52</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>18</v>
+      <c r="E97" s="11">
+        <v>23399479</v>
+      </c>
+      <c r="F97" s="11">
+        <v>295500000</v>
+      </c>
+      <c r="G97" s="11">
+        <v>74360000</v>
+      </c>
+      <c r="H97" s="11">
+        <v>36083424</v>
+      </c>
+      <c r="I97" s="11">
+        <v>35512731</v>
+      </c>
+      <c r="J97" s="11">
+        <v>71500000</v>
+      </c>
+      <c r="K97" s="11">
+        <v>51090782</v>
       </c>
       <c r="L97" s="11">
-        <v>23913968</v>
+        <v>74021021</v>
       </c>
       <c r="M97" s="11">
-        <v>35929639</v>
+        <v>196292428</v>
       </c>
       <c r="N97" s="11">
-        <v>91780249</v>
+        <v>85676471</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
@@ -3953,26 +3953,26 @@
       <c r="G98" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J98" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K98" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L98" s="13" t="s">
-        <v>18</v>
+      <c r="H98" s="13">
+        <v>5112158</v>
+      </c>
+      <c r="I98" s="13">
+        <v>6679608</v>
+      </c>
+      <c r="J98" s="13">
+        <v>6034265</v>
+      </c>
+      <c r="K98" s="13">
+        <v>9041891</v>
+      </c>
+      <c r="L98" s="13">
+        <v>8633625</v>
       </c>
       <c r="M98" s="13">
-        <v>5538333</v>
+        <v>5511322</v>
       </c>
       <c r="N98" s="13">
-        <v>7903458</v>
+        <v>8094311</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
@@ -3992,26 +3992,26 @@
       <c r="G99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>18</v>
+      <c r="H99" s="11">
+        <v>1560000000</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L99" s="11" t="s">
-        <v>18</v>
+      <c r="J99" s="11">
+        <v>1207142857</v>
+      </c>
+      <c r="K99" s="11">
+        <v>1007500000</v>
+      </c>
+      <c r="L99" s="11">
+        <v>1413750000</v>
       </c>
       <c r="M99" s="11">
-        <v>1251250000</v>
-      </c>
-      <c r="N99" s="11">
-        <v>1324074074</v>
+        <v>1300000000</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
@@ -4031,26 +4031,26 @@
       <c r="G100" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L100" s="13" t="s">
-        <v>18</v>
+      <c r="H100" s="13">
+        <v>3160105</v>
+      </c>
+      <c r="I100" s="13">
+        <v>3187912</v>
+      </c>
+      <c r="J100" s="13">
+        <v>4112936</v>
+      </c>
+      <c r="K100" s="13">
+        <v>20396552</v>
+      </c>
+      <c r="L100" s="13">
+        <v>5363006</v>
       </c>
       <c r="M100" s="13">
-        <v>3431462</v>
+        <v>346857143</v>
       </c>
       <c r="N100" s="13">
-        <v>9635500</v>
+        <v>12234278</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
@@ -4070,26 +4070,26 @@
       <c r="G101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J101" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L101" s="11" t="s">
-        <v>18</v>
+      <c r="H101" s="11">
+        <v>14999127</v>
+      </c>
+      <c r="I101" s="11">
+        <v>14999859</v>
+      </c>
+      <c r="J101" s="11">
+        <v>13832109</v>
+      </c>
+      <c r="K101" s="11">
+        <v>15000000</v>
+      </c>
+      <c r="L101" s="11">
+        <v>15205854</v>
       </c>
       <c r="M101" s="11">
-        <v>14635727</v>
+        <v>15523315</v>
       </c>
       <c r="N101" s="11">
-        <v>15205766</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
@@ -4112,23 +4112,23 @@
       <c r="H102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" s="13">
-        <v>745881</v>
+      <c r="I102" s="13">
+        <v>719792</v>
+      </c>
+      <c r="J102" s="13">
+        <v>750000</v>
+      </c>
+      <c r="K102" s="13">
+        <v>900000</v>
+      </c>
+      <c r="L102" s="13">
+        <v>900000</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="N102" s="13">
-        <v>899729</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
@@ -4164,10 +4164,10 @@
         <v>18</v>
       </c>
       <c r="M103" s="11">
-        <v>0</v>
-      </c>
-      <c r="N103" s="11">
         <v>1980000000</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
@@ -4205,8 +4205,8 @@
       <c r="M104" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N104" s="13">
-        <v>0</v>
+      <c r="N104" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
@@ -4252,8 +4252,8 @@
       <c r="J106" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K106" s="11" t="s">
-        <v>18</v>
+      <c r="K106" s="11">
+        <v>8760000</v>
       </c>
       <c r="L106" s="11" t="s">
         <v>18</v>
@@ -4261,8 +4261,8 @@
       <c r="M106" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N106" s="11">
-        <v>8760000</v>
+      <c r="N106" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
@@ -4327,11 +4327,11 @@
       <c r="I108" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J108" s="11">
-        <v>17300000</v>
-      </c>
-      <c r="K108" s="11">
-        <v>0</v>
+      <c r="J108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L108" s="11" t="s">
         <v>18</v>
@@ -4366,14 +4366,14 @@
       <c r="I109" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J109" s="13">
-        <v>9028810</v>
-      </c>
-      <c r="K109" s="13">
-        <v>14203460</v>
-      </c>
-      <c r="L109" s="13">
-        <v>0</v>
+      <c r="J109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M109" s="13" t="s">
         <v>18</v>
@@ -4390,8 +4390,8 @@
         <v>52</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>18</v>
+      <c r="E110" s="11">
+        <v>8400000</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>18</v>
@@ -4405,14 +4405,14 @@
       <c r="I110" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J110" s="11">
-        <v>0</v>
+      <c r="J110" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K110" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L110" s="11">
-        <v>8400000</v>
+      <c r="L110" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>18</v>
@@ -4477,26 +4477,26 @@
       <c r="G112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>18</v>
+      <c r="H112" s="11">
+        <v>9436000</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J112" s="11" t="s">
-        <v>18</v>
+      <c r="J112" s="11">
+        <v>9436000</v>
       </c>
       <c r="K112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L112" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M112" s="11">
-        <v>0</v>
+      <c r="L112" s="11">
+        <v>10812941</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="N112" s="11">
-        <v>10960938</v>
+        <v>11128667</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
@@ -4548,8 +4548,8 @@
       <c r="L114" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M114" s="11">
-        <v>0</v>
+      <c r="M114" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="N114" s="11" t="s">
         <v>18</v>
@@ -4590,8 +4590,8 @@
       <c r="M115" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N115" s="13">
-        <v>0</v>
+      <c r="N115" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
@@ -4716,35 +4716,35 @@
         <v>47</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>18</v>
+      <c r="E122" s="11">
+        <v>-16490</v>
+      </c>
+      <c r="F122" s="11">
+        <v>-1804</v>
+      </c>
+      <c r="G122" s="11">
+        <v>-17576</v>
+      </c>
+      <c r="H122" s="11">
+        <v>-31575</v>
+      </c>
+      <c r="I122" s="11">
+        <v>-41500</v>
       </c>
       <c r="J122" s="11">
-        <v>-24252</v>
+        <v>-18786</v>
       </c>
       <c r="K122" s="11">
-        <v>-27234</v>
+        <v>-49290</v>
       </c>
       <c r="L122" s="11">
-        <v>-32812</v>
+        <v>-80607</v>
       </c>
       <c r="M122" s="11">
-        <v>-109437</v>
+        <v>-81259</v>
       </c>
       <c r="N122" s="11">
-        <v>-300351</v>
+        <v>-89195</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.3">
@@ -4755,35 +4755,35 @@
         <v>47</v>
       </c>
       <c r="D123" s="13"/>
-      <c r="E123" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>18</v>
+      <c r="E123" s="13">
+        <v>-55071</v>
+      </c>
+      <c r="F123" s="13">
+        <v>-14867</v>
+      </c>
+      <c r="G123" s="13">
+        <v>-48253</v>
+      </c>
+      <c r="H123" s="13">
+        <v>-114359</v>
+      </c>
+      <c r="I123" s="13">
+        <v>-131163</v>
       </c>
       <c r="J123" s="13">
-        <v>-35821</v>
+        <v>-52659</v>
       </c>
       <c r="K123" s="13">
-        <v>-43225</v>
+        <v>-130752</v>
       </c>
       <c r="L123" s="13">
-        <v>-94981</v>
+        <v>-117257</v>
       </c>
       <c r="M123" s="13">
-        <v>-346434</v>
+        <v>-132171</v>
       </c>
       <c r="N123" s="13">
-        <v>-547039</v>
+        <v>-166859</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.3">
@@ -4794,35 +4794,35 @@
         <v>47</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>18</v>
+      <c r="E124" s="11">
+        <v>-74637</v>
+      </c>
+      <c r="F124" s="11">
+        <v>-3662</v>
+      </c>
+      <c r="G124" s="11">
+        <v>-104513</v>
+      </c>
+      <c r="H124" s="11">
+        <v>-105483</v>
+      </c>
+      <c r="I124" s="11">
+        <v>-126369</v>
       </c>
       <c r="J124" s="11">
-        <v>-133500</v>
+        <v>-37400</v>
       </c>
       <c r="K124" s="11">
-        <v>-263990</v>
+        <v>-84639</v>
       </c>
       <c r="L124" s="11">
-        <v>-202828</v>
+        <v>-81141</v>
       </c>
       <c r="M124" s="11">
-        <v>-373765</v>
+        <v>-122855</v>
       </c>
       <c r="N124" s="11">
-        <v>-419455</v>
+        <v>-130820</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.3">
@@ -4836,29 +4836,29 @@
       <c r="E125" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="13" t="s">
-        <v>18</v>
+      <c r="F125" s="13">
+        <v>0</v>
       </c>
       <c r="G125" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>18</v>
+      <c r="H125" s="13">
+        <v>0</v>
+      </c>
+      <c r="I125" s="13">
+        <v>0</v>
       </c>
       <c r="J125" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K125" s="13" t="s">
-        <v>18</v>
+      <c r="K125" s="13">
+        <v>0</v>
       </c>
       <c r="L125" s="13">
         <v>0</v>
       </c>
-      <c r="M125" s="13" t="s">
-        <v>18</v>
+      <c r="M125" s="13">
+        <v>0</v>
       </c>
       <c r="N125" s="13">
         <v>-353</v>
@@ -4872,35 +4872,35 @@
         <v>47</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>18</v>
+      <c r="E126" s="11">
+        <v>-92612</v>
+      </c>
+      <c r="F126" s="11">
+        <v>-75487</v>
+      </c>
+      <c r="G126" s="11">
+        <v>-227707</v>
+      </c>
+      <c r="H126" s="11">
+        <v>-129377</v>
+      </c>
+      <c r="I126" s="11">
+        <v>-155894</v>
       </c>
       <c r="J126" s="11">
-        <v>-342353</v>
+        <v>-136292</v>
       </c>
       <c r="K126" s="11">
-        <v>-473373</v>
+        <v>-145484</v>
       </c>
       <c r="L126" s="11">
-        <v>-480224</v>
+        <v>-120069</v>
       </c>
       <c r="M126" s="11">
-        <v>-649270</v>
+        <v>-1657030</v>
       </c>
       <c r="N126" s="11">
-        <v>-3630990</v>
+        <v>-1708407</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.3">
@@ -4911,14 +4911,14 @@
         <v>47</v>
       </c>
       <c r="D127" s="13"/>
-      <c r="E127" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>18</v>
+      <c r="E127" s="13">
+        <v>-22024</v>
+      </c>
+      <c r="F127" s="13">
+        <v>-50630</v>
+      </c>
+      <c r="G127" s="13">
+        <v>-61283</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>18</v>
@@ -4926,14 +4926,14 @@
       <c r="I127" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J127" s="13">
-        <v>-242025</v>
-      </c>
-      <c r="K127" s="13">
-        <v>-247408</v>
-      </c>
-      <c r="L127" s="13">
-        <v>-257905</v>
+      <c r="J127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M127" s="13" t="s">
         <v>18</v>
@@ -4950,35 +4950,35 @@
         <v>47</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J128" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K128" s="11" t="s">
-        <v>18</v>
+      <c r="E128" s="11">
+        <v>-44907</v>
+      </c>
+      <c r="F128" s="11">
+        <v>-5531</v>
+      </c>
+      <c r="G128" s="11">
+        <v>-6639</v>
+      </c>
+      <c r="H128" s="11">
+        <v>-7510</v>
+      </c>
+      <c r="I128" s="11">
+        <v>-245</v>
+      </c>
+      <c r="J128" s="11">
+        <v>-18759</v>
+      </c>
+      <c r="K128" s="11">
+        <v>-47121</v>
       </c>
       <c r="L128" s="11">
-        <v>-50438</v>
+        <v>-21813</v>
       </c>
       <c r="M128" s="11">
-        <v>-33153</v>
+        <v>-101590</v>
       </c>
       <c r="N128" s="11">
-        <v>-190305</v>
+        <v>-19781</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.3">
@@ -4989,35 +4989,35 @@
         <v>47</v>
       </c>
       <c r="D129" s="13"/>
-      <c r="E129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K129" s="13" t="s">
-        <v>18</v>
+      <c r="E129" s="13">
+        <v>-21046</v>
+      </c>
+      <c r="F129" s="13">
+        <v>-17204</v>
+      </c>
+      <c r="G129" s="13">
+        <v>0</v>
+      </c>
+      <c r="H129" s="13">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
+        <v>-46785</v>
+      </c>
+      <c r="J129" s="13">
+        <v>-15994</v>
+      </c>
+      <c r="K129" s="13">
+        <v>-35604</v>
       </c>
       <c r="L129" s="13">
-        <v>-38250</v>
+        <v>-25855</v>
       </c>
       <c r="M129" s="13">
-        <v>-62779</v>
+        <v>-34263</v>
       </c>
       <c r="N129" s="13">
-        <v>-160827</v>
+        <v>-65105</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.3">
@@ -5028,35 +5028,35 @@
         <v>47</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J130" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K130" s="11" t="s">
-        <v>18</v>
+      <c r="E130" s="11">
+        <v>-41832</v>
+      </c>
+      <c r="F130" s="11">
+        <v>-1121</v>
+      </c>
+      <c r="G130" s="11">
+        <v>-416</v>
+      </c>
+      <c r="H130" s="11">
+        <v>-111237</v>
+      </c>
+      <c r="I130" s="11">
+        <v>-90935</v>
+      </c>
+      <c r="J130" s="11">
+        <v>8550</v>
+      </c>
+      <c r="K130" s="11">
+        <v>-20993</v>
       </c>
       <c r="L130" s="11">
-        <v>-42953</v>
+        <v>-13652</v>
       </c>
       <c r="M130" s="11">
-        <v>-194038</v>
+        <v>-15692</v>
       </c>
       <c r="N130" s="11">
-        <v>-74833</v>
+        <v>-24496</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.3">
@@ -5076,26 +5076,26 @@
       <c r="G131" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J131" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K131" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L131" s="13" t="s">
-        <v>18</v>
+      <c r="H131" s="13">
+        <v>-84792</v>
+      </c>
+      <c r="I131" s="13">
+        <v>-92556</v>
+      </c>
+      <c r="J131" s="13">
+        <v>-49697</v>
+      </c>
+      <c r="K131" s="13">
+        <v>-56640</v>
+      </c>
+      <c r="L131" s="13">
+        <v>-108329</v>
       </c>
       <c r="M131" s="13">
-        <v>-227045</v>
+        <v>-149105</v>
       </c>
       <c r="N131" s="13">
-        <v>-350074</v>
+        <v>-36000</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.3">
@@ -5115,26 +5115,26 @@
       <c r="G132" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J132" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>18</v>
+      <c r="H132" s="11">
+        <v>-205</v>
+      </c>
+      <c r="I132" s="11">
+        <v>0</v>
+      </c>
+      <c r="J132" s="11">
+        <v>-3656</v>
+      </c>
+      <c r="K132" s="11">
+        <v>-988</v>
+      </c>
+      <c r="L132" s="11">
+        <v>-4701</v>
       </c>
       <c r="M132" s="11">
-        <v>-3861</v>
+        <v>-2325</v>
       </c>
       <c r="N132" s="11">
-        <v>-8812</v>
+        <v>-798</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.3">
@@ -5154,26 +5154,26 @@
       <c r="G133" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J133" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K133" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L133" s="13" t="s">
-        <v>18</v>
+      <c r="H133" s="13">
+        <v>-14751</v>
+      </c>
+      <c r="I133" s="13">
+        <v>-2755</v>
+      </c>
+      <c r="J133" s="13">
+        <v>-12284</v>
+      </c>
+      <c r="K133" s="13">
+        <v>-1434</v>
+      </c>
+      <c r="L133" s="13">
+        <v>-22306</v>
       </c>
       <c r="M133" s="13">
-        <v>-29790</v>
+        <v>-4514</v>
       </c>
       <c r="N133" s="13">
-        <v>-45628</v>
+        <v>-17374</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.3">
@@ -5193,26 +5193,26 @@
       <c r="G134" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J134" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L134" s="11" t="s">
-        <v>18</v>
+      <c r="H134" s="11">
+        <v>-18693</v>
+      </c>
+      <c r="I134" s="11">
+        <v>-44909</v>
+      </c>
+      <c r="J134" s="11">
+        <v>-31302</v>
+      </c>
+      <c r="K134" s="11">
+        <v>-29125</v>
+      </c>
+      <c r="L134" s="11">
+        <v>-32099</v>
       </c>
       <c r="M134" s="11">
-        <v>-94904</v>
+        <v>-53978</v>
       </c>
       <c r="N134" s="11">
-        <v>-172987</v>
+        <v>-57785</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.3">
@@ -5232,26 +5232,26 @@
       <c r="G135" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J135" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K135" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L135" s="13" t="s">
-        <v>18</v>
+      <c r="H135" s="13">
+        <v>0</v>
+      </c>
+      <c r="I135" s="13">
+        <v>-446</v>
+      </c>
+      <c r="J135" s="13">
+        <v>-2718</v>
+      </c>
+      <c r="K135" s="13">
+        <v>-495</v>
+      </c>
+      <c r="L135" s="13">
+        <v>-3399</v>
       </c>
       <c r="M135" s="13">
-        <v>-3164</v>
+        <v>114</v>
       </c>
       <c r="N135" s="13">
-        <v>-3796</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.3">
@@ -5271,26 +5271,26 @@
       <c r="G136" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L136" s="11" t="s">
-        <v>18</v>
+      <c r="H136" s="11">
+        <v>0</v>
+      </c>
+      <c r="I136" s="11">
+        <v>0</v>
+      </c>
+      <c r="J136" s="11">
+        <v>0</v>
+      </c>
+      <c r="K136" s="11">
+        <v>0</v>
+      </c>
+      <c r="L136" s="11">
+        <v>0</v>
       </c>
       <c r="M136" s="11">
-        <v>0</v>
+        <v>-954</v>
       </c>
       <c r="N136" s="11">
-        <v>-954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.3">
@@ -5310,23 +5310,23 @@
       <c r="G137" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>18</v>
+      <c r="H137" s="13">
+        <v>0</v>
+      </c>
+      <c r="I137" s="13">
+        <v>0</v>
       </c>
       <c r="J137" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K137" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L137" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M137" s="13" t="s">
-        <v>18</v>
+      <c r="K137" s="13">
+        <v>0</v>
+      </c>
+      <c r="L137" s="13">
+        <v>0</v>
+      </c>
+      <c r="M137" s="13">
+        <v>0</v>
       </c>
       <c r="N137" s="13">
         <v>0</v>
@@ -5339,34 +5339,34 @@
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15">
-        <v>0</v>
+        <v>-368619</v>
       </c>
       <c r="F138" s="15">
-        <v>0</v>
+        <v>-170306</v>
       </c>
       <c r="G138" s="15">
-        <v>0</v>
+        <v>-466387</v>
       </c>
       <c r="H138" s="15">
-        <v>0</v>
+        <v>-617982</v>
       </c>
       <c r="I138" s="15">
-        <v>0</v>
+        <v>-733557</v>
       </c>
       <c r="J138" s="15">
-        <v>-777951</v>
+        <v>-370997</v>
       </c>
       <c r="K138" s="15">
-        <v>-1055230</v>
+        <v>-602565</v>
       </c>
       <c r="L138" s="15">
-        <v>-1200391</v>
+        <v>-631228</v>
       </c>
       <c r="M138" s="15">
-        <v>-2127640</v>
+        <v>-2355622</v>
       </c>
       <c r="N138" s="15">
-        <v>-5906404</v>
+        <v>-2316989</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.3">
@@ -5412,14 +5412,14 @@
       <c r="J140" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K140" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L140" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M140" s="11" t="s">
-        <v>18</v>
+      <c r="K140" s="11">
+        <v>-100</v>
+      </c>
+      <c r="L140" s="11">
+        <v>100</v>
+      </c>
+      <c r="M140" s="11">
+        <v>0</v>
       </c>
       <c r="N140" s="11">
         <v>0</v>
@@ -5487,11 +5487,11 @@
       <c r="I142" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J142" s="11">
-        <v>-102</v>
-      </c>
-      <c r="K142" s="11">
-        <v>0</v>
+      <c r="J142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L142" s="11" t="s">
         <v>18</v>
@@ -5511,29 +5511,29 @@
         <v>47</v>
       </c>
       <c r="D143" s="13"/>
-      <c r="E143" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>18</v>
+      <c r="E143" s="13">
+        <v>0</v>
+      </c>
+      <c r="F143" s="13">
+        <v>0</v>
+      </c>
+      <c r="G143" s="13">
+        <v>0</v>
+      </c>
+      <c r="H143" s="13">
+        <v>0</v>
       </c>
       <c r="I143" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J143" s="13">
-        <v>-16050</v>
-      </c>
-      <c r="K143" s="13">
-        <v>-6598</v>
-      </c>
-      <c r="L143" s="13">
-        <v>0</v>
+      <c r="J143" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L143" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>18</v>
@@ -5550,14 +5550,14 @@
         <v>47</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>18</v>
+      <c r="E144" s="11">
+        <v>-1976</v>
+      </c>
+      <c r="F144" s="11">
+        <v>801</v>
+      </c>
+      <c r="G144" s="11">
+        <v>0</v>
       </c>
       <c r="H144" s="11" t="s">
         <v>18</v>
@@ -5565,14 +5565,14 @@
       <c r="I144" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J144" s="11">
-        <v>0</v>
+      <c r="J144" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K144" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L144" s="11">
-        <v>-1175</v>
+      <c r="L144" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="M144" s="11" t="s">
         <v>18</v>
@@ -5637,20 +5637,20 @@
       <c r="G146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J146" s="11" t="s">
-        <v>18</v>
+      <c r="H146" s="11">
+        <v>-5442</v>
+      </c>
+      <c r="I146" s="11">
+        <v>5442</v>
+      </c>
+      <c r="J146" s="11">
+        <v>0</v>
       </c>
       <c r="K146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L146" s="11" t="s">
-        <v>18</v>
+      <c r="L146" s="11">
+        <v>0</v>
       </c>
       <c r="M146" s="11">
         <v>0</v>
@@ -5666,28 +5666,28 @@
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
       <c r="E147" s="17">
-        <v>0</v>
+        <v>-1976</v>
       </c>
       <c r="F147" s="17">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="G147" s="17">
         <v>0</v>
       </c>
       <c r="H147" s="17">
-        <v>0</v>
+        <v>-5442</v>
       </c>
       <c r="I147" s="17">
-        <v>0</v>
+        <v>5442</v>
       </c>
       <c r="J147" s="17">
-        <v>-16152</v>
+        <v>0</v>
       </c>
       <c r="K147" s="17">
-        <v>-6598</v>
+        <v>-100</v>
       </c>
       <c r="L147" s="17">
-        <v>-1175</v>
+        <v>100</v>
       </c>
       <c r="M147" s="17">
         <v>0</v>
@@ -5733,20 +5733,20 @@
       <c r="H149" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I149" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J149" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K149" s="11" t="s">
-        <v>18</v>
+      <c r="I149" s="11">
+        <v>0</v>
+      </c>
+      <c r="J149" s="11">
+        <v>0</v>
+      </c>
+      <c r="K149" s="11">
+        <v>0</v>
       </c>
       <c r="L149" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M149" s="11">
-        <v>0</v>
+      <c r="M149" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="N149" s="11" t="s">
         <v>18</v>
@@ -5781,11 +5781,11 @@
       <c r="K150" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L150" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M150" s="13" t="s">
-        <v>18</v>
+      <c r="L150" s="13">
+        <v>0</v>
+      </c>
+      <c r="M150" s="13">
+        <v>0</v>
       </c>
       <c r="N150" s="13">
         <v>0</v>
@@ -5836,14 +5836,14 @@
         <v>47</v>
       </c>
       <c r="D152" s="17"/>
-      <c r="E152" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" s="17" t="s">
-        <v>18</v>
+      <c r="E152" s="17">
+        <v>654</v>
+      </c>
+      <c r="F152" s="17">
+        <v>546</v>
+      </c>
+      <c r="G152" s="17">
+        <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
         <v>18</v>
@@ -5851,14 +5851,14 @@
       <c r="I152" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J152" s="17">
-        <v>0</v>
-      </c>
-      <c r="K152" s="17">
-        <v>0</v>
-      </c>
-      <c r="L152" s="17">
-        <v>1200</v>
+      <c r="J152" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L152" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="M152" s="17" t="s">
         <v>18</v>
@@ -5875,20 +5875,20 @@
         <v>47</v>
       </c>
       <c r="D153" s="15"/>
-      <c r="E153" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I153" s="15" t="s">
-        <v>18</v>
+      <c r="E153" s="15">
+        <v>0</v>
+      </c>
+      <c r="F153" s="15">
+        <v>0</v>
+      </c>
+      <c r="G153" s="15">
+        <v>0</v>
+      </c>
+      <c r="H153" s="15">
+        <v>0</v>
+      </c>
+      <c r="I153" s="15">
+        <v>0</v>
       </c>
       <c r="J153" s="15">
         <v>0</v>
@@ -5913,34 +5913,34 @@
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17">
-        <v>0</v>
+        <v>-369941</v>
       </c>
       <c r="F154" s="17">
-        <v>0</v>
+        <v>-168959</v>
       </c>
       <c r="G154" s="17">
-        <v>0</v>
+        <v>-466387</v>
       </c>
       <c r="H154" s="17">
-        <v>0</v>
+        <v>-623424</v>
       </c>
       <c r="I154" s="17">
-        <v>0</v>
+        <v>-728115</v>
       </c>
       <c r="J154" s="17">
-        <v>-794103</v>
+        <v>-370997</v>
       </c>
       <c r="K154" s="17">
-        <v>-1061828</v>
+        <v>-602665</v>
       </c>
       <c r="L154" s="17">
-        <v>-1200366</v>
+        <v>-631128</v>
       </c>
       <c r="M154" s="17">
-        <v>-2127640</v>
+        <v>-2355622</v>
       </c>
       <c r="N154" s="17">
-        <v>-5906404</v>
+        <v>-2316989</v>
       </c>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.3">
@@ -6065,35 +6065,35 @@
         <v>47</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>18</v>
+      <c r="E161" s="11">
+        <v>14837</v>
+      </c>
+      <c r="F161" s="11">
+        <v>10068</v>
+      </c>
+      <c r="G161" s="11">
+        <v>27536</v>
+      </c>
+      <c r="H161" s="11">
+        <v>43431</v>
+      </c>
+      <c r="I161" s="11">
+        <v>27583</v>
       </c>
       <c r="J161" s="11">
-        <v>35372</v>
+        <v>19785</v>
       </c>
       <c r="K161" s="11">
-        <v>46946</v>
+        <v>45756</v>
       </c>
       <c r="L161" s="11">
-        <v>60073</v>
+        <v>49697</v>
       </c>
       <c r="M161" s="11">
-        <v>118335</v>
+        <v>34835</v>
       </c>
       <c r="N161" s="11">
-        <v>185253</v>
+        <v>54965</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.3">
@@ -6104,35 +6104,35 @@
         <v>47</v>
       </c>
       <c r="D162" s="13"/>
-      <c r="E162" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>18</v>
+      <c r="E162" s="13">
+        <v>43001</v>
+      </c>
+      <c r="F162" s="13">
+        <v>23943</v>
+      </c>
+      <c r="G162" s="13">
+        <v>-1014</v>
+      </c>
+      <c r="H162" s="13">
+        <v>106191</v>
+      </c>
+      <c r="I162" s="13">
+        <v>126896</v>
       </c>
       <c r="J162" s="13">
-        <v>18561</v>
+        <v>88980</v>
       </c>
       <c r="K162" s="13">
-        <v>55773</v>
+        <v>97702</v>
       </c>
       <c r="L162" s="13">
-        <v>94980</v>
+        <v>146587</v>
       </c>
       <c r="M162" s="13">
-        <v>321053</v>
+        <v>66759</v>
       </c>
       <c r="N162" s="13">
-        <v>416514</v>
+        <v>105466</v>
       </c>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.3">
@@ -6143,35 +6143,35 @@
         <v>47</v>
       </c>
       <c r="D163" s="11"/>
-      <c r="E163" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>18</v>
+      <c r="E163" s="11">
+        <v>18730</v>
+      </c>
+      <c r="F163" s="11">
+        <v>13887</v>
+      </c>
+      <c r="G163" s="11">
+        <v>85304</v>
+      </c>
+      <c r="H163" s="11">
+        <v>161901</v>
+      </c>
+      <c r="I163" s="11">
+        <v>90254</v>
       </c>
       <c r="J163" s="11">
-        <v>65715</v>
+        <v>71646</v>
       </c>
       <c r="K163" s="11">
-        <v>171221</v>
+        <v>92823</v>
       </c>
       <c r="L163" s="11">
-        <v>104123</v>
+        <v>118036</v>
       </c>
       <c r="M163" s="11">
-        <v>409105</v>
+        <v>186991</v>
       </c>
       <c r="N163" s="11">
-        <v>456330</v>
+        <v>58480</v>
       </c>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.3">
@@ -6185,29 +6185,29 @@
       <c r="E164" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="13" t="s">
-        <v>18</v>
+      <c r="F164" s="13">
+        <v>0</v>
       </c>
       <c r="G164" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H164" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="13" t="s">
-        <v>18</v>
+      <c r="H164" s="13">
+        <v>0</v>
+      </c>
+      <c r="I164" s="13">
+        <v>0</v>
       </c>
       <c r="J164" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K164" s="13" t="s">
-        <v>18</v>
+      <c r="K164" s="13">
+        <v>0</v>
       </c>
       <c r="L164" s="13">
         <v>0</v>
       </c>
-      <c r="M164" s="13" t="s">
-        <v>18</v>
+      <c r="M164" s="13">
+        <v>0</v>
       </c>
       <c r="N164" s="13">
         <v>3099</v>
@@ -6221,35 +6221,35 @@
         <v>47</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>18</v>
+      <c r="E165" s="11">
+        <v>4362</v>
+      </c>
+      <c r="F165" s="11">
+        <v>120148</v>
+      </c>
+      <c r="G165" s="11">
+        <v>183399</v>
+      </c>
+      <c r="H165" s="11">
+        <v>116874</v>
+      </c>
+      <c r="I165" s="11">
+        <v>105597</v>
       </c>
       <c r="J165" s="11">
-        <v>106804</v>
+        <v>150221</v>
       </c>
       <c r="K165" s="11">
-        <v>213360</v>
+        <v>109035</v>
       </c>
       <c r="L165" s="11">
-        <v>397843</v>
+        <v>237788</v>
       </c>
       <c r="M165" s="11">
-        <v>556091</v>
+        <v>792840</v>
       </c>
       <c r="N165" s="11">
-        <v>1711611</v>
+        <v>571948</v>
       </c>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.3">
@@ -6260,14 +6260,14 @@
         <v>47</v>
       </c>
       <c r="D166" s="13"/>
-      <c r="E166" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>18</v>
+      <c r="E166" s="13">
+        <v>105469</v>
+      </c>
+      <c r="F166" s="13">
+        <v>155536</v>
+      </c>
+      <c r="G166" s="13">
+        <v>187290</v>
       </c>
       <c r="H166" s="13" t="s">
         <v>18</v>
@@ -6275,14 +6275,14 @@
       <c r="I166" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J166" s="13">
-        <v>112849</v>
-      </c>
-      <c r="K166" s="13">
-        <v>189394</v>
-      </c>
-      <c r="L166" s="13">
-        <v>485950</v>
+      <c r="J166" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M166" s="13" t="s">
         <v>18</v>
@@ -6299,35 +6299,35 @@
         <v>47</v>
       </c>
       <c r="D167" s="11"/>
-      <c r="E167" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I167" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J167" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K167" s="11" t="s">
-        <v>18</v>
+      <c r="E167" s="11">
+        <v>24414</v>
+      </c>
+      <c r="F167" s="11">
+        <v>-565</v>
+      </c>
+      <c r="G167" s="11">
+        <v>7258</v>
+      </c>
+      <c r="H167" s="11">
+        <v>11578</v>
+      </c>
+      <c r="I167" s="11">
+        <v>2871</v>
+      </c>
+      <c r="J167" s="11">
+        <v>14047</v>
+      </c>
+      <c r="K167" s="11">
+        <v>52893</v>
       </c>
       <c r="L167" s="11">
-        <v>23849</v>
+        <v>62058</v>
       </c>
       <c r="M167" s="11">
-        <v>35754</v>
+        <v>112664</v>
       </c>
       <c r="N167" s="11">
-        <v>258485</v>
+        <v>30870</v>
       </c>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.3">
@@ -6338,35 +6338,35 @@
         <v>47</v>
       </c>
       <c r="D168" s="13"/>
-      <c r="E168" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I168" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J168" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" s="13" t="s">
-        <v>18</v>
+      <c r="E168" s="13">
+        <v>7837</v>
+      </c>
+      <c r="F168" s="13">
+        <v>1371</v>
+      </c>
+      <c r="G168" s="13">
+        <v>0</v>
+      </c>
+      <c r="H168" s="13">
+        <v>0</v>
+      </c>
+      <c r="I168" s="13">
+        <v>51468</v>
+      </c>
+      <c r="J168" s="13">
+        <v>10520</v>
+      </c>
+      <c r="K168" s="13">
+        <v>38380</v>
       </c>
       <c r="L168" s="13">
-        <v>9208</v>
+        <v>12418</v>
       </c>
       <c r="M168" s="13">
-        <v>61988</v>
+        <v>64369</v>
       </c>
       <c r="N168" s="13">
-        <v>175836</v>
+        <v>60669</v>
       </c>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.3">
@@ -6377,35 +6377,35 @@
         <v>47</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J169" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" s="11" t="s">
-        <v>18</v>
+      <c r="E169" s="11">
+        <v>56984</v>
+      </c>
+      <c r="F169" s="11">
+        <v>1243</v>
+      </c>
+      <c r="G169" s="11">
+        <v>1443</v>
+      </c>
+      <c r="H169" s="11">
+        <v>88593</v>
+      </c>
+      <c r="I169" s="11">
+        <v>51329</v>
+      </c>
+      <c r="J169" s="11">
+        <v>8264</v>
+      </c>
+      <c r="K169" s="11">
+        <v>15588</v>
       </c>
       <c r="L169" s="11">
-        <v>58227</v>
+        <v>10997</v>
       </c>
       <c r="M169" s="11">
-        <v>149629</v>
+        <v>59488</v>
       </c>
       <c r="N169" s="11">
-        <v>131489</v>
+        <v>45416</v>
       </c>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.3">
@@ -6425,26 +6425,26 @@
       <c r="G170" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H170" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J170" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K170" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L170" s="13" t="s">
-        <v>18</v>
+      <c r="H170" s="13">
+        <v>273785</v>
+      </c>
+      <c r="I170" s="13">
+        <v>42332</v>
+      </c>
+      <c r="J170" s="13">
+        <v>33600</v>
+      </c>
+      <c r="K170" s="13">
+        <v>116684</v>
+      </c>
+      <c r="L170" s="13">
+        <v>127274</v>
       </c>
       <c r="M170" s="13">
-        <v>349717</v>
+        <v>-43227</v>
       </c>
       <c r="N170" s="13">
-        <v>343162</v>
+        <v>142431</v>
       </c>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.3">
@@ -6464,26 +6464,26 @@
       <c r="G171" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H171" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I171" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J171" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K171" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L171" s="11" t="s">
-        <v>18</v>
+      <c r="H171" s="11">
+        <v>1355</v>
+      </c>
+      <c r="I171" s="11">
+        <v>0</v>
+      </c>
+      <c r="J171" s="11">
+        <v>4794</v>
+      </c>
+      <c r="K171" s="11">
+        <v>1027</v>
+      </c>
+      <c r="L171" s="11">
+        <v>6609</v>
       </c>
       <c r="M171" s="11">
-        <v>6149</v>
+        <v>2225</v>
       </c>
       <c r="N171" s="11">
-        <v>9063</v>
+        <v>-798</v>
       </c>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.3">
@@ -6503,26 +6503,26 @@
       <c r="G172" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H172" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I172" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J172" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K172" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L172" s="13" t="s">
-        <v>18</v>
+      <c r="H172" s="13">
+        <v>14066</v>
+      </c>
+      <c r="I172" s="13">
+        <v>8849</v>
+      </c>
+      <c r="J172" s="13">
+        <v>8001</v>
+      </c>
+      <c r="K172" s="13">
+        <v>932</v>
+      </c>
+      <c r="L172" s="13">
+        <v>27157</v>
       </c>
       <c r="M172" s="13">
-        <v>30916</v>
+        <v>22194</v>
       </c>
       <c r="N172" s="13">
-        <v>90300</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.3">
@@ -6542,26 +6542,26 @@
       <c r="G173" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J173" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K173" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L173" s="11" t="s">
-        <v>18</v>
+      <c r="H173" s="11">
+        <v>32829</v>
+      </c>
+      <c r="I173" s="11">
+        <v>61410</v>
+      </c>
+      <c r="J173" s="11">
+        <v>34608</v>
+      </c>
+      <c r="K173" s="11">
+        <v>36440</v>
+      </c>
+      <c r="L173" s="11">
+        <v>-927</v>
       </c>
       <c r="M173" s="11">
-        <v>128847</v>
+        <v>37237</v>
       </c>
       <c r="N173" s="11">
-        <v>85435</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="174" spans="2:14" x14ac:dyDescent="0.3">
@@ -6581,26 +6581,26 @@
       <c r="G174" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K174" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L174" s="13" t="s">
-        <v>18</v>
+      <c r="H174" s="13">
+        <v>0</v>
+      </c>
+      <c r="I174" s="13">
+        <v>245</v>
+      </c>
+      <c r="J174" s="13">
+        <v>1842</v>
+      </c>
+      <c r="K174" s="13">
+        <v>369</v>
+      </c>
+      <c r="L174" s="13">
+        <v>2361</v>
       </c>
       <c r="M174" s="13">
-        <v>2087</v>
+        <v>114</v>
       </c>
       <c r="N174" s="13">
-        <v>2835</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="175" spans="2:14" x14ac:dyDescent="0.3">
@@ -6620,26 +6620,26 @@
       <c r="G175" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J175" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K175" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L175" s="11" t="s">
-        <v>18</v>
+      <c r="H175" s="11">
+        <v>0</v>
+      </c>
+      <c r="I175" s="11">
+        <v>0</v>
+      </c>
+      <c r="J175" s="11">
+        <v>0</v>
+      </c>
+      <c r="K175" s="11">
+        <v>0</v>
+      </c>
+      <c r="L175" s="11">
+        <v>0</v>
       </c>
       <c r="M175" s="11">
-        <v>0</v>
+        <v>3006</v>
       </c>
       <c r="N175" s="11">
-        <v>3006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="2:14" x14ac:dyDescent="0.3">
@@ -6659,23 +6659,23 @@
       <c r="G176" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H176" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I176" s="13" t="s">
-        <v>18</v>
+      <c r="H176" s="13">
+        <v>0</v>
+      </c>
+      <c r="I176" s="13">
+        <v>0</v>
       </c>
       <c r="J176" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K176" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L176" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M176" s="13" t="s">
-        <v>18</v>
+      <c r="K176" s="13">
+        <v>0</v>
+      </c>
+      <c r="L176" s="13">
+        <v>0</v>
+      </c>
+      <c r="M176" s="13">
+        <v>0</v>
       </c>
       <c r="N176" s="13">
         <v>0</v>
@@ -6688,34 +6688,34 @@
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15">
-        <v>0</v>
+        <v>275634</v>
       </c>
       <c r="F177" s="15">
-        <v>0</v>
+        <v>325631</v>
       </c>
       <c r="G177" s="15">
-        <v>0</v>
+        <v>491216</v>
       </c>
       <c r="H177" s="15">
-        <v>0</v>
+        <v>850603</v>
       </c>
       <c r="I177" s="15">
-        <v>0</v>
+        <v>568834</v>
       </c>
       <c r="J177" s="15">
-        <v>339301</v>
+        <v>446308</v>
       </c>
       <c r="K177" s="15">
-        <v>676694</v>
+        <v>607629</v>
       </c>
       <c r="L177" s="15">
-        <v>1234253</v>
+        <v>800055</v>
       </c>
       <c r="M177" s="15">
-        <v>2169671</v>
+        <v>1339495</v>
       </c>
       <c r="N177" s="15">
-        <v>3872418</v>
+        <v>1125239</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.3">
@@ -6761,17 +6761,17 @@
       <c r="J179" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K179" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L179" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M179" s="11" t="s">
-        <v>18</v>
+      <c r="K179" s="11">
+        <v>119</v>
+      </c>
+      <c r="L179" s="11">
+        <v>100</v>
+      </c>
+      <c r="M179" s="11">
+        <v>0</v>
       </c>
       <c r="N179" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="2:14" x14ac:dyDescent="0.3">
@@ -6836,11 +6836,11 @@
       <c r="I181" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J181" s="11">
-        <v>71</v>
-      </c>
-      <c r="K181" s="11">
-        <v>0</v>
+      <c r="J181" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K181" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L181" s="11" t="s">
         <v>18</v>
@@ -6860,29 +6860,29 @@
         <v>47</v>
       </c>
       <c r="D182" s="13"/>
-      <c r="E182" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H182" s="13" t="s">
-        <v>18</v>
+      <c r="E182" s="13">
+        <v>0</v>
+      </c>
+      <c r="F182" s="13">
+        <v>0</v>
+      </c>
+      <c r="G182" s="13">
+        <v>0</v>
+      </c>
+      <c r="H182" s="13">
+        <v>0</v>
       </c>
       <c r="I182" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J182" s="13">
-        <v>21871</v>
-      </c>
-      <c r="K182" s="13">
-        <v>27888</v>
-      </c>
-      <c r="L182" s="13">
-        <v>0</v>
+      <c r="J182" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L182" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="M182" s="13" t="s">
         <v>18</v>
@@ -6899,14 +6899,14 @@
         <v>47</v>
       </c>
       <c r="D183" s="11"/>
-      <c r="E183" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" s="11" t="s">
-        <v>18</v>
+      <c r="E183" s="11">
+        <v>6424</v>
+      </c>
+      <c r="F183" s="11">
+        <v>801</v>
+      </c>
+      <c r="G183" s="11">
+        <v>0</v>
       </c>
       <c r="H183" s="11" t="s">
         <v>18</v>
@@ -6914,14 +6914,14 @@
       <c r="I183" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J183" s="11">
-        <v>0</v>
+      <c r="J183" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K183" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L183" s="11">
-        <v>7225</v>
+      <c r="L183" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="M183" s="11" t="s">
         <v>18</v>
@@ -6986,26 +6986,26 @@
       <c r="G185" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H185" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J185" s="11" t="s">
-        <v>18</v>
+      <c r="H185" s="11">
+        <v>3994</v>
+      </c>
+      <c r="I185" s="11">
+        <v>5442</v>
+      </c>
+      <c r="J185" s="11">
+        <v>-9436</v>
       </c>
       <c r="K185" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L185" s="11" t="s">
-        <v>18</v>
+      <c r="L185" s="11">
+        <v>18382</v>
       </c>
       <c r="M185" s="11">
         <v>0</v>
       </c>
       <c r="N185" s="11">
-        <v>35075</v>
+        <v>16693</v>
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.3">
@@ -7015,34 +7015,34 @@
       <c r="C186" s="17"/>
       <c r="D186" s="17"/>
       <c r="E186" s="17">
-        <v>0</v>
+        <v>6424</v>
       </c>
       <c r="F186" s="17">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="G186" s="17">
         <v>0</v>
       </c>
       <c r="H186" s="17">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="I186" s="17">
-        <v>0</v>
+        <v>5442</v>
       </c>
       <c r="J186" s="17">
-        <v>21942</v>
+        <v>-9436</v>
       </c>
       <c r="K186" s="17">
-        <v>27888</v>
+        <v>119</v>
       </c>
       <c r="L186" s="17">
-        <v>7225</v>
+        <v>18482</v>
       </c>
       <c r="M186" s="17">
         <v>0</v>
       </c>
       <c r="N186" s="17">
-        <v>40983</v>
+        <v>22382</v>
       </c>
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.3">
@@ -7082,20 +7082,20 @@
       <c r="H188" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I188" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J188" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K188" s="11" t="s">
-        <v>18</v>
+      <c r="I188" s="11">
+        <v>0</v>
+      </c>
+      <c r="J188" s="11">
+        <v>0</v>
+      </c>
+      <c r="K188" s="11">
+        <v>0</v>
       </c>
       <c r="L188" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M188" s="11">
-        <v>0</v>
+      <c r="M188" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="N188" s="11" t="s">
         <v>18</v>
@@ -7130,11 +7130,11 @@
       <c r="K189" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L189" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M189" s="13" t="s">
-        <v>18</v>
+      <c r="L189" s="13">
+        <v>0</v>
+      </c>
+      <c r="M189" s="13">
+        <v>0</v>
       </c>
       <c r="N189" s="13">
         <v>0</v>
@@ -7184,34 +7184,34 @@
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
       <c r="E191" s="17">
-        <v>0</v>
+        <v>282058</v>
       </c>
       <c r="F191" s="17">
-        <v>0</v>
+        <v>326432</v>
       </c>
       <c r="G191" s="17">
-        <v>0</v>
+        <v>491216</v>
       </c>
       <c r="H191" s="17">
-        <v>0</v>
+        <v>854597</v>
       </c>
       <c r="I191" s="17">
-        <v>0</v>
+        <v>574276</v>
       </c>
       <c r="J191" s="17">
-        <v>361243</v>
+        <v>436872</v>
       </c>
       <c r="K191" s="17">
-        <v>704582</v>
+        <v>607748</v>
       </c>
       <c r="L191" s="17">
-        <v>1241478</v>
+        <v>818537</v>
       </c>
       <c r="M191" s="17">
-        <v>2169671</v>
+        <v>1339495</v>
       </c>
       <c r="N191" s="17">
-        <v>3913401</v>
+        <v>1147621</v>
       </c>
     </row>
   </sheetData>
